--- a/data/raw/collected_metadata/metadata_auteur.xlsx
+++ b/data/raw/collected_metadata/metadata_auteur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6608ABCC-1B3C-4EC6-887A-43215EA05238}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C28B08-68D6-45DD-8E16-E9A0D2AE591D}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="597">
   <si>
     <t>id_membre</t>
   </si>
@@ -837,15 +837,9 @@
     <t>psychiatrie</t>
   </si>
   <si>
-    <t>haut fonctionnaire;cadre privé</t>
-  </si>
-  <si>
     <t>big pharma;chimie</t>
   </si>
   <si>
-    <t>ENArque;cadre privé</t>
-  </si>
-  <si>
     <t>ENArque</t>
   </si>
   <si>
@@ -861,9 +855,6 @@
     <t>vice présidente de l'UNAF, représente de l'UNAF au Conseil Economique et Sociale</t>
   </si>
   <si>
-    <t>militante</t>
-  </si>
-  <si>
     <t>infirmière</t>
   </si>
   <si>
@@ -873,9 +864,6 @@
     <t>participe à la commission Sauvé</t>
   </si>
   <si>
-    <t>infirmière;haut fonctionnaire</t>
-  </si>
-  <si>
     <t>philosophie;psychiatrie</t>
   </si>
   <si>
@@ -1080,9 +1068,6 @@
     <t>entrée en licence en 99</t>
   </si>
   <si>
-    <t>médecin;politicien</t>
-  </si>
-  <si>
     <t>fondateur du samu social et de MSF</t>
   </si>
   <si>
@@ -1122,9 +1107,6 @@
     <t>judaïsme</t>
   </si>
   <si>
-    <t>médecin;militante</t>
-  </si>
-  <si>
     <t>anésthésie</t>
   </si>
   <si>
@@ -1134,9 +1116,6 @@
     <t>psychologie;philosophie</t>
   </si>
   <si>
-    <t>haut fonctionnaire;médecin</t>
-  </si>
-  <si>
     <t>santé publique</t>
   </si>
   <si>
@@ -1176,9 +1155,6 @@
     <t>AFFM, chef de service à partir de 1981. En considérant qu'elle avait alors 40 ans</t>
   </si>
   <si>
-    <t>militant;professeur d'université</t>
-  </si>
-  <si>
     <t>hommage par Najat Vallaud Belkacem, engagement jeunesse chrétienne en 1942; puis PS</t>
   </si>
   <si>
@@ -1194,9 +1170,6 @@
     <t>cour de cassation</t>
   </si>
   <si>
-    <t>chercheur;professeur d'université</t>
-  </si>
-  <si>
     <t>Jean Dausset</t>
   </si>
   <si>
@@ -1581,9 +1554,6 @@
     <t>nommée par l'institut pasteur à partir de 2021</t>
   </si>
   <si>
-    <t>CNRS + INSERM;PR</t>
-  </si>
-  <si>
     <t>Institut Pasteur;CNRS + INSERM</t>
   </si>
   <si>
@@ -1614,9 +1584,6 @@
     <t>comité d'éthique du CNRS, collège de France</t>
   </si>
   <si>
-    <t>mathématique</t>
-  </si>
-  <si>
     <t>épidémiologie</t>
   </si>
   <si>
@@ -1665,9 +1632,6 @@
     <t>Béatrice Descamps</t>
   </si>
   <si>
-    <t>médecine</t>
-  </si>
-  <si>
     <t>Béatrice Descamps-Latscha</t>
   </si>
   <si>
@@ -1770,27 +1734,18 @@
     <t>idref : Ancien élève de l'École normale de Saint-Cloud. Assistant à l'École normale supérieure (1963-1966). Enseignant à l'Université de Nice (1967-1980). Élu président de cette université (1989-1994). Premier vice-président de la Conférence des présidents d'université (1990-1992). Nommé recteur de l'Académie de Corse (1997-09-17)</t>
   </si>
   <si>
-    <t>écologie;biologie</t>
-  </si>
-  <si>
     <t>letudiant : Ancien président d'Aix-Marseille 1 (2007-2011) https://www.letudiant.fr/educpros/personnalites/caverni-jean-paul-17.html</t>
   </si>
   <si>
     <t>letudiant : Ancien président de l’université de Picardie Jules Verne https://www.letudiant.fr/educpros/personnalites/faure-georges-61.html</t>
   </si>
   <si>
-    <t>ENArque;magistrat</t>
-  </si>
-  <si>
     <t>magistrat</t>
   </si>
   <si>
     <t>politicien;avocat</t>
   </si>
   <si>
-    <t>juriste;journaliste</t>
-  </si>
-  <si>
     <t>gastro-entérologue</t>
   </si>
   <si>
@@ -1845,10 +1800,34 @@
     <t>ingénieur;militant</t>
   </si>
   <si>
-    <t>ITA</t>
-  </si>
-  <si>
     <t>juriste;ITA</t>
+  </si>
+  <si>
+    <t>INSERM;PR</t>
+  </si>
+  <si>
+    <t>Défenseur des droits, formation de juriste</t>
+  </si>
+  <si>
+    <t>aussi cadre privé</t>
+  </si>
+  <si>
+    <t>devenu cadre privé</t>
+  </si>
+  <si>
+    <t>politicien;médecin;</t>
+  </si>
+  <si>
+    <t>militant ?</t>
+  </si>
+  <si>
+    <t>devenu haut fonctionnaire ?</t>
+  </si>
+  <si>
+    <t>mathématiques</t>
+  </si>
+  <si>
+    <t>Labrusse-Riou</t>
   </si>
 </sst>
 </file>
@@ -2241,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2277,7 @@
         <v>131</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>158</v>
@@ -2453,7 +2432,7 @@
         <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2465,7 +2444,7 @@
         <v>1951</v>
       </c>
       <c r="N6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2558,7 +2537,7 @@
         <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J9">
         <v>1950</v>
@@ -2590,7 +2569,7 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J10">
         <v>1963</v>
@@ -2622,7 +2601,7 @@
         <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J11">
         <v>1971</v>
@@ -2718,7 +2697,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3116,7 +3095,7 @@
         <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I27" t="s">
         <v>153</v>
@@ -4073,7 +4052,7 @@
         <v>174</v>
       </c>
       <c r="H57" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J57">
         <v>1930</v>
@@ -4102,7 +4081,7 @@
         <v>174</v>
       </c>
       <c r="H58" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J58">
         <v>1935</v>
@@ -4132,7 +4111,7 @@
         <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J59">
         <v>1945</v>
@@ -4161,7 +4140,7 @@
         <v>174</v>
       </c>
       <c r="H60" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J60">
         <v>1955</v>
@@ -4193,7 +4172,7 @@
         <v>174</v>
       </c>
       <c r="H61" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="J61">
         <v>1948</v>
@@ -4222,7 +4201,7 @@
         <v>180</v>
       </c>
       <c r="H62" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J62">
         <v>1927</v>
@@ -4251,7 +4230,7 @@
         <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J63">
         <v>1933</v>
@@ -4277,10 +4256,10 @@
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="H64" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J64">
         <v>1950</v>
@@ -4288,7 +4267,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="N64" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4311,16 +4290,16 @@
         <v>83</v>
       </c>
       <c r="G65" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H65" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J65">
         <v>1952</v>
       </c>
       <c r="N65" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4346,7 +4325,7 @@
         <v>180</v>
       </c>
       <c r="H66" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J66">
         <v>1952</v>
@@ -4378,7 +4357,7 @@
         <v>180</v>
       </c>
       <c r="H67" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J67">
         <v>1959</v>
@@ -4561,16 +4540,16 @@
         <v>2022</v>
       </c>
       <c r="G73" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H73" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="J73">
         <v>1951</v>
       </c>
       <c r="N73" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4596,13 +4575,13 @@
         <v>52</v>
       </c>
       <c r="H74" t="s">
-        <v>583</v>
+        <v>115</v>
       </c>
       <c r="J74">
         <v>1962</v>
       </c>
       <c r="N74" t="s">
-        <v>73</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4666,7 +4645,10 @@
         <v>213</v>
       </c>
       <c r="J76">
-        <v>1968</v>
+        <v>1937</v>
+      </c>
+      <c r="M76" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4858,13 +4840,16 @@
         <v>220</v>
       </c>
       <c r="H82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I82" t="s">
         <v>226</v>
       </c>
       <c r="J82">
         <v>1943</v>
+      </c>
+      <c r="N82" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5041,7 +5026,7 @@
         <v>2005</v>
       </c>
       <c r="G88" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="H88" t="s">
         <v>25</v>
@@ -5137,7 +5122,7 @@
         <v>83</v>
       </c>
       <c r="G91" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
@@ -5149,7 +5134,7 @@
         <v>1951</v>
       </c>
       <c r="N91" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5204,7 +5189,7 @@
         <v>1988</v>
       </c>
       <c r="G93" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="H93" t="s">
         <v>25</v>
@@ -5222,7 +5207,7 @@
         <v>1998</v>
       </c>
       <c r="N93" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5248,16 +5233,16 @@
         <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J94">
         <v>1923</v>
       </c>
       <c r="N94" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,13 +5300,13 @@
         <v>238</v>
       </c>
       <c r="H96" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J96">
         <v>1935</v>
       </c>
       <c r="N96" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5350,7 +5335,7 @@
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J97">
         <v>1957</v>
@@ -5402,13 +5387,13 @@
         <v>244</v>
       </c>
       <c r="H99" t="s">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="J99">
         <v>1932</v>
       </c>
       <c r="N99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5434,13 +5419,13 @@
         <v>244</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="J100">
         <v>1949</v>
       </c>
       <c r="N100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5466,7 +5451,7 @@
         <v>244</v>
       </c>
       <c r="H101" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5492,7 +5477,7 @@
         <v>244</v>
       </c>
       <c r="H102" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5524,7 +5509,7 @@
         <v>1954</v>
       </c>
       <c r="N103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5547,7 +5532,7 @@
         <v>83</v>
       </c>
       <c r="G104" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
@@ -5556,7 +5541,7 @@
         <v>37</v>
       </c>
       <c r="N104" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5675,7 +5660,7 @@
         <v>27</v>
       </c>
       <c r="I108" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J108">
         <v>1938</v>
@@ -5707,13 +5692,13 @@
         <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J109">
         <v>1951</v>
       </c>
       <c r="N109" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5736,10 +5721,10 @@
         <v>2008</v>
       </c>
       <c r="G110" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H110" t="s">
-        <v>385</v>
+        <v>27</v>
       </c>
       <c r="I110" t="s">
         <v>120</v>
@@ -5754,7 +5739,7 @@
         <v>83</v>
       </c>
       <c r="N110" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5812,7 +5797,7 @@
         <v>260</v>
       </c>
       <c r="H112" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J112">
         <v>1961</v>
@@ -5844,7 +5829,7 @@
         <v>161</v>
       </c>
       <c r="I113" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J113">
         <v>1950</v>
@@ -5855,7 +5840,7 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -5870,19 +5855,19 @@
         <v>1998</v>
       </c>
       <c r="G114" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H114" t="s">
         <v>95</v>
       </c>
       <c r="I114" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J114">
         <v>1907</v>
       </c>
       <c r="N114" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5890,7 +5875,7 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C115" t="s">
         <v>81</v>
@@ -5905,13 +5890,13 @@
         <v>2003</v>
       </c>
       <c r="G115" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H115" t="s">
         <v>27</v>
       </c>
       <c r="I115" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J115">
         <v>1933</v>
@@ -5923,7 +5908,7 @@
         <v>2012</v>
       </c>
       <c r="M115" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -5931,7 +5916,7 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -5946,7 +5931,7 @@
         <v>2012</v>
       </c>
       <c r="G116" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H116" t="s">
         <v>27</v>
@@ -5963,7 +5948,7 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -5978,13 +5963,13 @@
         <v>2016</v>
       </c>
       <c r="G117" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J117">
         <v>1958</v>
@@ -5995,7 +5980,7 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C118" t="s">
         <v>81</v>
@@ -6010,7 +5995,7 @@
         <v>2021</v>
       </c>
       <c r="G118" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H118" t="s">
         <v>27</v>
@@ -6027,7 +6012,7 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -6042,7 +6027,7 @@
         <v>2022</v>
       </c>
       <c r="G119" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H119" t="s">
         <v>27</v>
@@ -6059,7 +6044,7 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
         <v>81</v>
@@ -6074,7 +6059,7 @@
         <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
@@ -6086,7 +6071,7 @@
         <v>1974</v>
       </c>
       <c r="N120" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6094,7 +6079,7 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
         <v>81</v>
@@ -6109,7 +6094,7 @@
         <v>1992</v>
       </c>
       <c r="G121" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H121" t="s">
         <v>25</v>
@@ -6123,7 +6108,7 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
         <v>81</v>
@@ -6138,7 +6123,7 @@
         <v>1998</v>
       </c>
       <c r="G122" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H122" t="s">
         <v>25</v>
@@ -6152,7 +6137,7 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
@@ -6167,16 +6152,19 @@
         <v>2005</v>
       </c>
       <c r="G123" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H123" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="I123" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J123">
         <v>1912</v>
+      </c>
+      <c r="N123" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6199,7 +6187,7 @@
         <v>2008</v>
       </c>
       <c r="G124" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H124" t="s">
         <v>25</v>
@@ -6216,7 +6204,7 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
         <v>81</v>
@@ -6231,10 +6219,10 @@
         <v>2017</v>
       </c>
       <c r="G125" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H125" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6257,7 +6245,7 @@
         <v>2022</v>
       </c>
       <c r="G126" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
@@ -6274,7 +6262,7 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C127" t="s">
         <v>81</v>
@@ -6289,7 +6277,7 @@
         <v>83</v>
       </c>
       <c r="G127" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H127" t="s">
         <v>95</v>
@@ -6298,7 +6286,7 @@
         <v>1981</v>
       </c>
       <c r="N127" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6306,7 +6294,7 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
@@ -6321,16 +6309,16 @@
         <v>1988</v>
       </c>
       <c r="G128" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H128" t="s">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="J128">
         <v>1938</v>
       </c>
       <c r="N128" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6338,7 +6326,7 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s">
         <v>35</v>
@@ -6353,19 +6341,19 @@
         <v>1992</v>
       </c>
       <c r="G129" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J129">
         <v>1923</v>
       </c>
       <c r="N129" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6373,7 +6361,7 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s">
         <v>81</v>
@@ -6388,13 +6376,13 @@
         <v>1996</v>
       </c>
       <c r="G130" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H130" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N130" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6402,7 +6390,7 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -6417,13 +6405,13 @@
         <v>2005</v>
       </c>
       <c r="G131" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H131" t="s">
         <v>25</v>
       </c>
       <c r="I131" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6431,7 +6419,7 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -6446,13 +6434,13 @@
         <v>2009</v>
       </c>
       <c r="G132" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H132" t="s">
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6460,7 +6448,7 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -6475,7 +6463,7 @@
         <v>2013</v>
       </c>
       <c r="G133" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H133" t="s">
         <v>25</v>
@@ -6487,7 +6475,7 @@
         <v>1939</v>
       </c>
       <c r="N133" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6495,7 +6483,7 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C134" t="s">
         <v>81</v>
@@ -6510,16 +6498,16 @@
         <v>2022</v>
       </c>
       <c r="G134" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H134" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="J134">
         <v>1957</v>
       </c>
       <c r="N134" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6527,7 +6515,7 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C135" t="s">
         <v>81</v>
@@ -6542,7 +6530,7 @@
         <v>83</v>
       </c>
       <c r="G135" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
@@ -6556,7 +6544,7 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -6571,13 +6559,13 @@
         <v>1988</v>
       </c>
       <c r="G136" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H136" t="s">
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J136">
         <v>1923</v>
@@ -6588,7 +6576,7 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -6603,7 +6591,7 @@
         <v>1992</v>
       </c>
       <c r="G137" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H137" t="s">
         <v>25</v>
@@ -6617,7 +6605,7 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -6632,7 +6620,7 @@
         <v>1996</v>
       </c>
       <c r="G138" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H138" t="s">
         <v>25</v>
@@ -6649,7 +6637,7 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C139" t="s">
         <v>81</v>
@@ -6664,10 +6652,10 @@
         <v>2000</v>
       </c>
       <c r="G139" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H139" t="s">
-        <v>347</v>
+        <v>592</v>
       </c>
       <c r="I139" t="s">
         <v>231</v>
@@ -6676,7 +6664,7 @@
         <v>1919</v>
       </c>
       <c r="N139" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -6684,7 +6672,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C140" t="s">
         <v>81</v>
@@ -6699,10 +6687,10 @@
         <v>2009</v>
       </c>
       <c r="G140" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,7 +6698,7 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C141" t="s">
         <v>81</v>
@@ -6725,10 +6713,10 @@
         <v>2013</v>
       </c>
       <c r="G141" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -6736,7 +6724,7 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
@@ -6751,13 +6739,13 @@
         <v>2022</v>
       </c>
       <c r="G142" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H142" t="s">
         <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J142">
         <v>1952</v>
@@ -6768,7 +6756,7 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C143" t="s">
         <v>81</v>
@@ -6783,7 +6771,7 @@
         <v>83</v>
       </c>
       <c r="G143" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H143" t="s">
         <v>25</v>
@@ -6797,7 +6785,7 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C144" t="s">
         <v>81</v>
@@ -6812,13 +6800,13 @@
         <v>2000</v>
       </c>
       <c r="G144" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H144" t="s">
         <v>25</v>
       </c>
       <c r="I144" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J144">
         <v>1933</v>
@@ -6829,7 +6817,7 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C145" t="s">
         <v>81</v>
@@ -6844,16 +6832,19 @@
         <v>2003</v>
       </c>
       <c r="G145" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H145" t="s">
-        <v>361</v>
+        <v>25</v>
       </c>
       <c r="I145" t="s">
         <v>231</v>
       </c>
       <c r="J145">
         <v>1943</v>
+      </c>
+      <c r="N145" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -6861,7 +6852,7 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C146" t="s">
         <v>81</v>
@@ -6876,13 +6867,13 @@
         <v>2009</v>
       </c>
       <c r="G146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H146" t="s">
         <v>25</v>
       </c>
       <c r="I146" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J146">
         <v>1946</v>
@@ -6893,7 +6884,7 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
         <v>81</v>
@@ -6908,7 +6899,7 @@
         <v>2013</v>
       </c>
       <c r="G147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H147" t="s">
         <v>25</v>
@@ -6920,7 +6911,7 @@
         <v>1953</v>
       </c>
       <c r="N147" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -6943,13 +6934,13 @@
         <v>2017</v>
       </c>
       <c r="G148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H148" t="s">
         <v>27</v>
       </c>
       <c r="I148" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J148">
         <v>1974</v>
@@ -6960,7 +6951,7 @@
         <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -6975,13 +6966,16 @@
         <v>83</v>
       </c>
       <c r="G149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H149" t="s">
-        <v>365</v>
+        <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>366</v>
+        <v>359</v>
+      </c>
+      <c r="N149" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -6989,7 +6983,7 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -7004,13 +6998,13 @@
         <v>1986</v>
       </c>
       <c r="G150" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="J150">
         <v>1914</v>
@@ -7021,7 +7015,7 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -7036,7 +7030,7 @@
         <v>1990</v>
       </c>
       <c r="G151" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H151" t="s">
         <v>25</v>
@@ -7048,7 +7042,7 @@
         <v>1943</v>
       </c>
       <c r="N151" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7056,7 +7050,7 @@
         <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -7071,13 +7065,13 @@
         <v>1993</v>
       </c>
       <c r="G152" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H152" t="s">
         <v>115</v>
       </c>
       <c r="I152" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J152">
         <v>1923</v>
@@ -7088,7 +7082,7 @@
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -7103,13 +7097,13 @@
         <v>1998</v>
       </c>
       <c r="G153" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H153" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J153">
-        <v>2015</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -7117,7 +7111,7 @@
         <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -7132,7 +7126,7 @@
         <v>2003</v>
       </c>
       <c r="G154" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H154" t="s">
         <v>115</v>
@@ -7146,7 +7140,7 @@
         <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -7161,7 +7155,7 @@
         <v>2012</v>
       </c>
       <c r="G155" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H155" t="s">
         <v>115</v>
@@ -7175,7 +7169,7 @@
         <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -7190,19 +7184,19 @@
         <v>2021</v>
       </c>
       <c r="G156" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H156" t="s">
         <v>27</v>
       </c>
       <c r="I156" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J156">
         <v>1949</v>
       </c>
       <c r="N156" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -7225,7 +7219,7 @@
         <v>83</v>
       </c>
       <c r="G157" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H157" t="s">
         <v>27</v>
@@ -7242,7 +7236,7 @@
         <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C158" t="s">
         <v>35</v>
@@ -7257,7 +7251,7 @@
         <v>1988</v>
       </c>
       <c r="G158" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H158" t="s">
         <v>161</v>
@@ -7274,7 +7268,7 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -7289,7 +7283,7 @@
         <v>1994</v>
       </c>
       <c r="G159" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H159" t="s">
         <v>25</v>
@@ -7306,7 +7300,7 @@
         <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C160" t="s">
         <v>35</v>
@@ -7321,7 +7315,7 @@
         <v>2003</v>
       </c>
       <c r="G160" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H160" t="s">
         <v>25</v>
@@ -7333,7 +7327,7 @@
         <v>1931</v>
       </c>
       <c r="N160" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7341,7 +7335,7 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C161" t="s">
         <v>81</v>
@@ -7356,16 +7350,16 @@
         <v>2012</v>
       </c>
       <c r="G161" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H161" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I161" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N161" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7373,7 +7367,7 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C162" t="s">
         <v>81</v>
@@ -7388,19 +7382,19 @@
         <v>2021</v>
       </c>
       <c r="G162" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H162" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I162" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J162">
         <v>1946</v>
       </c>
       <c r="N162" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7408,7 +7402,7 @@
         <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C163" t="s">
         <v>35</v>
@@ -7423,7 +7417,7 @@
         <v>83</v>
       </c>
       <c r="G163" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H163" t="s">
         <v>27</v>
@@ -7440,7 +7434,7 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
         <v>81</v>
@@ -7455,7 +7449,7 @@
         <v>1990</v>
       </c>
       <c r="G164" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H164" t="s">
         <v>25</v>
@@ -7464,7 +7458,7 @@
         <v>1941</v>
       </c>
       <c r="N164" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -7472,7 +7466,7 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
         <v>81</v>
@@ -7487,10 +7481,10 @@
         <v>1994</v>
       </c>
       <c r="G165" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H165" t="s">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="I165" t="s">
         <v>120</v>
@@ -7499,7 +7493,7 @@
         <v>1920</v>
       </c>
       <c r="N165" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -7507,7 +7501,7 @@
         <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
         <v>81</v>
@@ -7522,13 +7516,13 @@
         <v>1998</v>
       </c>
       <c r="G166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H166" t="s">
         <v>25</v>
       </c>
       <c r="I166" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J166">
         <v>1939</v>
@@ -7539,7 +7533,7 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C167" t="s">
         <v>81</v>
@@ -7554,7 +7548,7 @@
         <v>2008</v>
       </c>
       <c r="G167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H167" t="s">
         <v>215</v>
@@ -7566,7 +7560,7 @@
         <v>1967</v>
       </c>
       <c r="N167" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -7574,7 +7568,7 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
         <v>81</v>
@@ -7589,16 +7583,16 @@
         <v>2016</v>
       </c>
       <c r="G168" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H168" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J168">
         <v>1973</v>
       </c>
       <c r="N168" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7606,7 +7600,7 @@
         <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -7621,16 +7615,16 @@
         <v>2021</v>
       </c>
       <c r="G169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H169" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="J169">
         <v>1950</v>
       </c>
       <c r="N169" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -7638,7 +7632,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -7662,7 +7656,7 @@
         <v>1916</v>
       </c>
       <c r="N170" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -7670,7 +7664,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -7697,7 +7691,7 @@
         <v>1920</v>
       </c>
       <c r="N171" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -7705,7 +7699,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -7734,7 +7728,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -7752,7 +7746,7 @@
         <v>50</v>
       </c>
       <c r="H173" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="I173" t="s">
         <v>37</v>
@@ -7761,7 +7755,7 @@
         <v>1923</v>
       </c>
       <c r="N173" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -7769,7 +7763,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -7793,7 +7787,7 @@
         <v>1932</v>
       </c>
       <c r="N174" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -7801,7 +7795,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
@@ -7810,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>20098</v>
+        <v>2009</v>
       </c>
       <c r="F175">
         <v>2012</v>
@@ -7822,7 +7816,7 @@
         <v>27</v>
       </c>
       <c r="I175" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="J175">
         <v>1941</v>
@@ -7833,7 +7827,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
@@ -7854,7 +7848,7 @@
         <v>27</v>
       </c>
       <c r="I176" t="s">
-        <v>525</v>
+        <v>595</v>
       </c>
       <c r="J176">
         <v>1926</v>
@@ -7865,7 +7859,7 @@
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -7883,7 +7877,7 @@
         <v>50</v>
       </c>
       <c r="H177" t="s">
-        <v>522</v>
+        <v>25</v>
       </c>
       <c r="I177" t="s">
         <v>41</v>
@@ -7892,7 +7886,7 @@
         <v>1940</v>
       </c>
       <c r="N177" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -7900,7 +7894,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -7915,19 +7909,19 @@
         <v>1992</v>
       </c>
       <c r="G178" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H178" t="s">
         <v>25</v>
       </c>
       <c r="I178" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J178">
         <v>1914</v>
       </c>
       <c r="N178" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -7935,7 +7929,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -7950,7 +7944,7 @@
         <v>1996</v>
       </c>
       <c r="G179" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H179" t="s">
         <v>25</v>
@@ -7959,7 +7953,7 @@
         <v>1917</v>
       </c>
       <c r="N179" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -7967,7 +7961,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C180" t="s">
         <v>35</v>
@@ -7982,13 +7976,13 @@
         <v>2005</v>
       </c>
       <c r="G180" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H180" t="s">
         <v>25</v>
       </c>
       <c r="I180" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J180">
         <v>1924</v>
@@ -7999,7 +7993,7 @@
         <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -8014,7 +8008,7 @@
         <v>2013</v>
       </c>
       <c r="G181" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
@@ -8028,7 +8022,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -8043,7 +8037,7 @@
         <v>2017</v>
       </c>
       <c r="G182" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H182" t="s">
         <v>25</v>
@@ -8060,7 +8054,7 @@
         <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C183" t="s">
         <v>35</v>
@@ -8075,7 +8069,7 @@
         <v>83</v>
       </c>
       <c r="G183" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H183" t="s">
         <v>161</v>
@@ -8089,7 +8083,7 @@
         <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C184" t="s">
         <v>35</v>
@@ -8116,7 +8110,7 @@
         <v>1916</v>
       </c>
       <c r="N184" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -8124,7 +8118,7 @@
         <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -8151,7 +8145,7 @@
         <v>1920</v>
       </c>
       <c r="N185" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -8159,7 +8153,7 @@
         <v>193</v>
       </c>
       <c r="B186" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -8191,7 +8185,7 @@
         <v>194</v>
       </c>
       <c r="B187" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C187" t="s">
         <v>81</v>
@@ -8218,7 +8212,7 @@
         <v>1941</v>
       </c>
       <c r="N187" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -8226,7 +8220,7 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C188" t="s">
         <v>81</v>
@@ -8258,7 +8252,7 @@
         <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -8290,7 +8284,7 @@
         <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -8322,7 +8316,7 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C191" t="s">
         <v>81</v>
@@ -8354,7 +8348,7 @@
         <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C192" t="s">
         <v>81</v>
@@ -8375,7 +8369,7 @@
         <v>161</v>
       </c>
       <c r="I192" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="J192">
         <v>1920</v>
@@ -8386,7 +8380,7 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -8407,13 +8401,13 @@
         <v>161</v>
       </c>
       <c r="I193" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="J193">
         <v>1925</v>
       </c>
       <c r="N193" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -8421,7 +8415,7 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -8442,7 +8436,7 @@
         <v>161</v>
       </c>
       <c r="I194" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="J194">
         <v>1936</v>
@@ -8453,7 +8447,7 @@
         <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C195" t="s">
         <v>81</v>
@@ -8474,13 +8468,13 @@
         <v>161</v>
       </c>
       <c r="I195" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="J195">
         <v>1948</v>
       </c>
       <c r="N195" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -8488,7 +8482,7 @@
         <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C196" t="s">
         <v>81</v>
@@ -8503,13 +8497,13 @@
         <v>2016</v>
       </c>
       <c r="G196" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="H196" t="s">
         <v>161</v>
       </c>
       <c r="I196" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="J196">
         <v>1945</v>
@@ -8526,7 +8520,7 @@
         <v>206</v>
       </c>
       <c r="B197" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
@@ -8553,7 +8547,7 @@
         <v>1965</v>
       </c>
       <c r="N197" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -8561,7 +8555,7 @@
         <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C198" t="s">
         <v>81</v>
@@ -8579,16 +8573,16 @@
         <v>34</v>
       </c>
       <c r="H198" t="s">
-        <v>542</v>
+        <v>25</v>
       </c>
       <c r="J198">
         <v>1939</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="N198" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -8596,7 +8590,7 @@
         <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C199" t="s">
         <v>81</v>
@@ -8617,7 +8611,7 @@
         <v>161</v>
       </c>
       <c r="N199" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -8625,7 +8619,7 @@
         <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C200" t="s">
         <v>81</v>
@@ -8654,7 +8648,7 @@
         <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C201" t="s">
         <v>81</v>
@@ -8692,7 +8686,7 @@
         <v>212</v>
       </c>
       <c r="B202" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C202" t="s">
         <v>81</v>
@@ -8721,7 +8715,7 @@
         <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C203" t="s">
         <v>35</v>
@@ -8742,7 +8736,7 @@
         <v>25</v>
       </c>
       <c r="I203" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="J203">
         <v>1949</v>
@@ -8753,7 +8747,7 @@
         <v>214</v>
       </c>
       <c r="B204" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C204" t="s">
         <v>81</v>
@@ -8785,7 +8779,7 @@
         <v>215</v>
       </c>
       <c r="B205" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C205" t="s">
         <v>81</v>
@@ -8806,7 +8800,7 @@
         <v>25</v>
       </c>
       <c r="I205" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="J205">
         <v>1923</v>
@@ -8817,7 +8811,7 @@
         <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C206" t="s">
         <v>81</v>
@@ -8841,10 +8835,10 @@
         <v>118</v>
       </c>
       <c r="M206" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="N206" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -8852,7 +8846,7 @@
         <v>217</v>
       </c>
       <c r="B207" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C207" t="s">
         <v>81</v>
@@ -8873,7 +8867,7 @@
         <v>25</v>
       </c>
       <c r="I207" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="J207">
         <v>1932</v>
@@ -8884,7 +8878,7 @@
         <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C208" t="s">
         <v>81</v>
@@ -8913,7 +8907,7 @@
         <v>220</v>
       </c>
       <c r="B209" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -8945,7 +8939,7 @@
         <v>221</v>
       </c>
       <c r="B210" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C210" t="s">
         <v>81</v>
@@ -8963,10 +8957,10 @@
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I210" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="K210">
         <v>1992</v>
@@ -8980,7 +8974,7 @@
         <v>222</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C211" t="s">
         <v>81</v>
@@ -8996,9 +8990,6 @@
       </c>
       <c r="G211" t="s">
         <v>34</v>
-      </c>
-      <c r="H211" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -9006,7 +8997,7 @@
         <v>223</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C212" t="s">
         <v>81</v>
@@ -9023,11 +9014,8 @@
       <c r="G212" t="s">
         <v>34</v>
       </c>
-      <c r="H212" t="s">
-        <v>602</v>
-      </c>
       <c r="N212" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -9035,7 +9023,7 @@
         <v>224</v>
       </c>
       <c r="B213" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C213" t="s">
         <v>81</v>
@@ -9053,7 +9041,7 @@
         <v>34</v>
       </c>
       <c r="H213" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -9061,7 +9049,7 @@
         <v>225</v>
       </c>
       <c r="B214" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C214" t="s">
         <v>81</v>
@@ -9078,9 +9066,6 @@
       <c r="G214" t="s">
         <v>34</v>
       </c>
-      <c r="H214" t="s">
-        <v>602</v>
-      </c>
       <c r="I214" t="s">
         <v>37</v>
       </c>
@@ -9088,7 +9073,7 @@
         <v>1977</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -9096,7 +9081,7 @@
         <v>226</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -9114,7 +9099,7 @@
         <v>34</v>
       </c>
       <c r="H215" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I215" t="s">
         <v>264</v>
@@ -9128,7 +9113,7 @@
         <v>227</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C216" t="s">
         <v>81</v>
@@ -9151,7 +9136,7 @@
         <v>228</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -9183,7 +9168,7 @@
         <v>229</v>
       </c>
       <c r="B218" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C218" t="s">
         <v>35</v>
@@ -9206,7 +9191,7 @@
         <v>230</v>
       </c>
       <c r="B219" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C219" t="s">
         <v>81</v>
@@ -9229,7 +9214,7 @@
         <v>231</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C220" t="s">
         <v>81</v>
@@ -9247,10 +9232,10 @@
         <v>34</v>
       </c>
       <c r="H220" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="N220" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -9258,7 +9243,7 @@
         <v>232</v>
       </c>
       <c r="B221" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C221" t="s">
         <v>81</v>
@@ -9281,7 +9266,7 @@
         <v>233</v>
       </c>
       <c r="B222" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -9302,7 +9287,7 @@
         <v>25</v>
       </c>
       <c r="I222" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J222">
         <v>1946</v>
@@ -9313,7 +9298,7 @@
         <v>234</v>
       </c>
       <c r="B223" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C223" t="s">
         <v>81</v>
@@ -9334,7 +9319,7 @@
         <v>27</v>
       </c>
       <c r="I223" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -9342,7 +9327,7 @@
         <v>235</v>
       </c>
       <c r="B224" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C224" t="s">
         <v>81</v>
@@ -9363,7 +9348,7 @@
         <v>25</v>
       </c>
       <c r="I224" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J224">
         <v>1941</v>
@@ -9374,7 +9359,7 @@
         <v>236</v>
       </c>
       <c r="B225" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -9403,7 +9388,7 @@
         <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -9435,7 +9420,7 @@
         <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -9464,7 +9449,7 @@
         <v>240</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -9485,13 +9470,13 @@
         <v>25</v>
       </c>
       <c r="I228" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="J228">
         <v>1949</v>
       </c>
       <c r="N228" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -9499,7 +9484,7 @@
         <v>241</v>
       </c>
       <c r="B229" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C229" t="s">
         <v>35</v>
@@ -9528,7 +9513,7 @@
         <v>242</v>
       </c>
       <c r="B230" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C230" t="s">
         <v>81</v>
@@ -9557,7 +9542,7 @@
         <v>243</v>
       </c>
       <c r="B231" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C231" t="s">
         <v>35</v>
@@ -9578,13 +9563,13 @@
         <v>161</v>
       </c>
       <c r="I231" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="J231">
         <v>1917</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -9592,7 +9577,7 @@
         <v>244</v>
       </c>
       <c r="B232" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -9613,10 +9598,10 @@
         <v>161</v>
       </c>
       <c r="I232" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -9624,7 +9609,7 @@
         <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C233" t="s">
         <v>35</v>
@@ -9656,7 +9641,7 @@
         <v>246</v>
       </c>
       <c r="B234" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C234" t="s">
         <v>35</v>
@@ -9677,7 +9662,7 @@
         <v>25</v>
       </c>
       <c r="I234" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="J234">
         <v>1938</v>
@@ -9688,7 +9673,7 @@
         <v>247</v>
       </c>
       <c r="B235" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C235" t="s">
         <v>35</v>
@@ -9706,13 +9691,13 @@
         <v>34</v>
       </c>
       <c r="H235" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I235" t="s">
         <v>126</v>
       </c>
       <c r="N235" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -9720,7 +9705,7 @@
         <v>248</v>
       </c>
       <c r="B236" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -9741,7 +9726,7 @@
         <v>27</v>
       </c>
       <c r="I236" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="J236">
         <v>1921</v>
@@ -9752,7 +9737,7 @@
         <v>249</v>
       </c>
       <c r="B237" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -9773,13 +9758,13 @@
         <v>25</v>
       </c>
       <c r="I237" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="J237">
         <v>1929</v>
       </c>
       <c r="N237" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -9787,7 +9772,7 @@
         <v>250</v>
       </c>
       <c r="B238" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C238" t="s">
         <v>81</v>
@@ -9819,7 +9804,7 @@
         <v>251</v>
       </c>
       <c r="B239" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -9851,7 +9836,7 @@
         <v>252</v>
       </c>
       <c r="B240" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -9872,7 +9857,7 @@
         <v>27</v>
       </c>
       <c r="I240" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="J240">
         <v>1947</v>
@@ -9883,7 +9868,7 @@
         <v>253</v>
       </c>
       <c r="B241" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
@@ -9901,7 +9886,7 @@
         <v>33</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="I241" t="s">
         <v>120</v>
@@ -9915,7 +9900,7 @@
         <v>254</v>
       </c>
       <c r="B242" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C242" t="s">
         <v>81</v>
@@ -9947,7 +9932,7 @@
         <v>255</v>
       </c>
       <c r="B243" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C243" t="s">
         <v>35</v>
@@ -9968,7 +9953,7 @@
         <v>27</v>
       </c>
       <c r="I243" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J243">
         <v>1950</v>
@@ -9979,7 +9964,7 @@
         <v>256</v>
       </c>
       <c r="B244" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
@@ -10011,7 +9996,7 @@
         <v>257</v>
       </c>
       <c r="B245" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C245" t="s">
         <v>35</v>
@@ -10035,7 +10020,7 @@
         <v>1922</v>
       </c>
       <c r="N245" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -10043,7 +10028,7 @@
         <v>258</v>
       </c>
       <c r="B246" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C246" t="s">
         <v>35</v>
@@ -10067,7 +10052,7 @@
         <v>1927</v>
       </c>
       <c r="N246" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -10075,7 +10060,7 @@
         <v>259</v>
       </c>
       <c r="B247" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -10096,7 +10081,7 @@
         <v>27</v>
       </c>
       <c r="I247" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -10104,7 +10089,7 @@
         <v>260</v>
       </c>
       <c r="B248" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C248" t="s">
         <v>35</v>
@@ -10133,7 +10118,7 @@
         <v>261</v>
       </c>
       <c r="B249" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C249" t="s">
         <v>35</v>
@@ -10165,7 +10150,7 @@
         <v>262</v>
       </c>
       <c r="B250" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C250" t="s">
         <v>81</v>
@@ -10186,10 +10171,10 @@
         <v>161</v>
       </c>
       <c r="I250" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="N250" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -10197,7 +10182,7 @@
         <v>263</v>
       </c>
       <c r="B251" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -10212,19 +10197,19 @@
         <v>1990</v>
       </c>
       <c r="G251" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
       </c>
       <c r="I251" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="J251">
         <v>1921</v>
       </c>
       <c r="N251" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -10232,7 +10217,7 @@
         <v>264</v>
       </c>
       <c r="B252" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C252" t="s">
         <v>35</v>
@@ -10247,7 +10232,7 @@
         <v>1992</v>
       </c>
       <c r="G252" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H252" t="s">
         <v>27</v>
@@ -10259,7 +10244,7 @@
         <v>1942</v>
       </c>
       <c r="N252" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -10267,7 +10252,7 @@
         <v>265</v>
       </c>
       <c r="B253" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C253" t="s">
         <v>35</v>
@@ -10282,7 +10267,7 @@
         <v>1994</v>
       </c>
       <c r="G253" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H253" t="s">
         <v>27</v>
@@ -10294,7 +10279,7 @@
         <v>1930</v>
       </c>
       <c r="N253" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -10302,7 +10287,7 @@
         <v>266</v>
       </c>
       <c r="B254" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C254" t="s">
         <v>35</v>
@@ -10317,19 +10302,19 @@
         <v>2000</v>
       </c>
       <c r="G254" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H254" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="I254" t="s">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="J254">
         <v>1939</v>
       </c>
       <c r="N254" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -10337,7 +10322,7 @@
         <v>267</v>
       </c>
       <c r="B255" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C255" t="s">
         <v>35</v>
@@ -10352,19 +10337,19 @@
         <v>2008</v>
       </c>
       <c r="G255" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H255" t="s">
         <v>27</v>
       </c>
       <c r="I255" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="J255">
         <v>1947</v>
       </c>
       <c r="N255" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -10372,7 +10357,7 @@
         <v>268</v>
       </c>
       <c r="B256" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C256" t="s">
         <v>35</v>
@@ -10387,7 +10372,7 @@
         <v>2009</v>
       </c>
       <c r="G256" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H256" t="s">
         <v>27</v>
@@ -10399,7 +10384,7 @@
         <v>1960</v>
       </c>
       <c r="N256" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -10407,7 +10392,7 @@
         <v>269</v>
       </c>
       <c r="B257" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C257" t="s">
         <v>35</v>
@@ -10422,19 +10407,19 @@
         <v>2013</v>
       </c>
       <c r="G257" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
       </c>
       <c r="I257" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="J257">
         <v>1941</v>
       </c>
       <c r="N257" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -10442,7 +10427,7 @@
         <v>270</v>
       </c>
       <c r="B258" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -10457,7 +10442,7 @@
         <v>2017</v>
       </c>
       <c r="G258" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H258" t="s">
         <v>27</v>
@@ -10474,7 +10459,7 @@
         <v>271</v>
       </c>
       <c r="B259" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C259" t="s">
         <v>81</v>
@@ -10489,13 +10474,13 @@
         <v>2019</v>
       </c>
       <c r="G259" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H259" t="s">
         <v>27</v>
       </c>
       <c r="I259" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="J259">
         <v>1957</v>
@@ -10506,7 +10491,7 @@
         <v>272</v>
       </c>
       <c r="B260" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C260" t="s">
         <v>81</v>
@@ -10521,13 +10506,13 @@
         <v>2021</v>
       </c>
       <c r="G260" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H260" t="s">
         <v>27</v>
       </c>
       <c r="I260" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -10535,7 +10520,7 @@
         <v>273</v>
       </c>
       <c r="B261" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C261" t="s">
         <v>81</v>
@@ -10550,7 +10535,7 @@
         <v>2022</v>
       </c>
       <c r="G261" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -10559,7 +10544,7 @@
         <v>1957</v>
       </c>
       <c r="N261" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -10567,7 +10552,7 @@
         <v>274</v>
       </c>
       <c r="B262" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C262" t="s">
         <v>35</v>
@@ -10582,16 +10567,16 @@
         <v>83</v>
       </c>
       <c r="G262" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
       </c>
       <c r="I262" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="N262" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -10599,7 +10584,7 @@
         <v>275</v>
       </c>
       <c r="B263" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C263" t="s">
         <v>35</v>
@@ -10614,13 +10599,13 @@
         <v>1992</v>
       </c>
       <c r="G263" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H263" t="s">
         <v>27</v>
       </c>
       <c r="I263" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="J263">
         <v>1948</v>
@@ -10631,7 +10616,7 @@
         <v>277</v>
       </c>
       <c r="B264" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C264" t="s">
         <v>35</v>
@@ -10646,13 +10631,13 @@
         <v>2000</v>
       </c>
       <c r="G264" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H264" t="s">
         <v>161</v>
       </c>
       <c r="I264" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="J264">
         <v>1940</v>
@@ -10663,7 +10648,7 @@
         <v>278</v>
       </c>
       <c r="B265" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C265" t="s">
         <v>35</v>
@@ -10678,13 +10663,13 @@
         <v>2003</v>
       </c>
       <c r="G265" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H265" t="s">
         <v>161</v>
       </c>
       <c r="I265" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="J265">
         <v>1949</v>
@@ -10695,7 +10680,7 @@
         <v>279</v>
       </c>
       <c r="B266" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C266" t="s">
         <v>35</v>
@@ -10710,7 +10695,7 @@
         <v>2005</v>
       </c>
       <c r="G266" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H266" t="s">
         <v>161</v>
@@ -10727,7 +10712,7 @@
         <v>280</v>
       </c>
       <c r="B267" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C267" t="s">
         <v>35</v>
@@ -10742,13 +10727,13 @@
         <v>2009</v>
       </c>
       <c r="G267" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H267" t="s">
         <v>161</v>
       </c>
       <c r="I267" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
@@ -10756,7 +10741,7 @@
         <v>281</v>
       </c>
       <c r="B268" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C268" t="s">
         <v>35</v>
@@ -10771,13 +10756,13 @@
         <v>2012</v>
       </c>
       <c r="G268" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H268" t="s">
         <v>25</v>
       </c>
       <c r="I268" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="J268">
         <v>1979</v>
@@ -10788,7 +10773,7 @@
         <v>282</v>
       </c>
       <c r="B269" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C269" t="s">
         <v>35</v>
@@ -10803,13 +10788,13 @@
         <v>2022</v>
       </c>
       <c r="G269" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H269" t="s">
         <v>161</v>
       </c>
       <c r="I269" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -10817,7 +10802,7 @@
         <v>283</v>
       </c>
       <c r="B270" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -10832,13 +10817,13 @@
         <v>83</v>
       </c>
       <c r="G270" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="H270" t="s">
         <v>95</v>
       </c>
       <c r="I270" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="J270">
         <v>1948</v>
@@ -10849,7 +10834,7 @@
         <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C271" t="s">
         <v>35</v>
@@ -10864,7 +10849,7 @@
         <v>83</v>
       </c>
       <c r="G271" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H271" t="s">
         <v>27</v>
@@ -10881,7 +10866,7 @@
         <v>285</v>
       </c>
       <c r="B272" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C272" t="s">
         <v>81</v>
@@ -10896,16 +10881,16 @@
         <v>83</v>
       </c>
       <c r="G272" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H272" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="J272">
         <v>1974</v>
       </c>
       <c r="N272" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
@@ -10913,7 +10898,7 @@
         <v>286</v>
       </c>
       <c r="B273" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C273" t="s">
         <v>81</v>
@@ -10931,13 +10916,13 @@
         <v>67</v>
       </c>
       <c r="H273" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="J273">
         <v>1985</v>
       </c>
       <c r="N273" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
@@ -10945,7 +10930,7 @@
         <v>287</v>
       </c>
       <c r="B274" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -10960,13 +10945,13 @@
         <v>83</v>
       </c>
       <c r="G274" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H274" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="N274" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
@@ -10974,7 +10959,7 @@
         <v>288</v>
       </c>
       <c r="B275" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C275" t="s">
         <v>81</v>
@@ -10989,10 +10974,10 @@
         <v>83</v>
       </c>
       <c r="G275" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="H275" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
@@ -11000,7 +10985,7 @@
         <v>289</v>
       </c>
       <c r="B276" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C276" t="s">
         <v>81</v>
@@ -11021,7 +11006,7 @@
         <v>195</v>
       </c>
       <c r="I276" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11341,7 +11326,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -11349,23 +11334,23 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B32" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_auteur.xlsx
+++ b/data/raw/collected_metadata/metadata_auteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="456" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C28B08-68D6-45DD-8E16-E9A0D2AE591D}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D50337-D862-4D48-8312-BC9FF2D45EBA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="612">
   <si>
     <t>id_membre</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Alain Grimfeld</t>
   </si>
   <si>
-    <t>Jean Claude Ameisen</t>
-  </si>
-  <si>
     <t>Jean-François Delfraissy</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Mohamed Arkoun</t>
   </si>
   <si>
-    <t>Sadek Beloucif</t>
-  </si>
-  <si>
     <t>Ali Benmakhlouf</t>
   </si>
   <si>
@@ -609,9 +603,6 @@
     <t>Ketty Schwartz</t>
   </si>
   <si>
-    <t>Anne Combon-Thomsen</t>
-  </si>
-  <si>
     <t>Lucien Neuwirth</t>
   </si>
   <si>
@@ -711,9 +702,6 @@
     <t>Dominique Stoppa-Lyonnet</t>
   </si>
   <si>
-    <t>Frédérique Kutten</t>
-  </si>
-  <si>
     <t>Alexandra Benachi</t>
   </si>
   <si>
@@ -1335,9 +1323,6 @@
     <t>Carole Moquin-Pattey</t>
   </si>
   <si>
-    <t>Annick Alperovitch</t>
-  </si>
-  <si>
     <t>Francis Puech</t>
   </si>
   <si>
@@ -1413,9 +1398,6 @@
     <t>Patrick Gaudray</t>
   </si>
   <si>
-    <t>Mounira Amor-Gueret</t>
-  </si>
-  <si>
     <t>France Universités</t>
   </si>
   <si>
@@ -1770,9 +1752,6 @@
     <t>géographie</t>
   </si>
   <si>
-    <t>France Universités;MinRecherche</t>
-  </si>
-  <si>
     <t>agronomie</t>
   </si>
   <si>
@@ -1828,6 +1807,72 @@
   </si>
   <si>
     <t>Labrusse-Riou</t>
+  </si>
+  <si>
+    <t>Mounira Amor-Guéret</t>
+  </si>
+  <si>
+    <t>Anne Durandy-Torre</t>
+  </si>
+  <si>
+    <t>Frédérique Kuttenn</t>
+  </si>
+  <si>
+    <t>Jean-Claude Ameisen</t>
+  </si>
+  <si>
+    <t>INRAE;MinRecherche</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Curtes</t>
+  </si>
+  <si>
+    <t>Philippe Lucas</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Dedonder</t>
+  </si>
+  <si>
+    <t>Jean Leonardelli</t>
+  </si>
+  <si>
+    <t>Claude Burlet</t>
+  </si>
+  <si>
+    <t>Didier Truchet</t>
+  </si>
+  <si>
+    <t>Véronique Fournier</t>
+  </si>
+  <si>
+    <t>MinTravail;France Universités</t>
+  </si>
+  <si>
+    <t>Nommé par France Universités à partir de 2016</t>
+  </si>
+  <si>
+    <t>Véronique Fournier a été nommée Présidente du conseil d'orientation stratégique du Centre national des soins palliatifs et de la fin de vie par arrêté de la ministre des affaires sociales et de la santé en date du 7 avril 2016.  : https://www.ethique-hdf.fr/detail-evenement/veronique-fournier-nommee-presidente-du-centre-national-des-soins-palliatifs-et-de-la-fin-de-vie/</t>
+  </si>
+  <si>
+    <t>cardiologie;santé publique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipedia : Jean-Pierre Dedonder, né le 6 mai 1946, est un universitaire français, spécialiste en physique nucléaire théorique. Il dirige l'université Paris VII de 1992 à 1997 et est recteur de l'académie de Créteil de mai 1998 à juin 2000 </t>
+  </si>
+  <si>
+    <t>idref : http://www.idref.fr/026997177/id, Professeur de sociologie à l'université de Lyon II-Lumière (en 1990). Recteur de l'académie de Bordeaux puis de Caen (depuis 1993). Membre du Comité national d'éthique (de 1986 à 1994) et du Groupe de réflexion sur l'enseignement supérieur</t>
+  </si>
+  <si>
+    <t>médecine sociale;travail;toxicologie</t>
+  </si>
+  <si>
+    <t>Annick Alpérovitch</t>
+  </si>
+  <si>
+    <t>Sadek Béloucif</t>
+  </si>
+  <si>
+    <t>Anne Cambon-Thomsen</t>
   </si>
 </sst>
 </file>
@@ -1933,8 +1978,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F7BC900-E0E2-4118-953E-094BD53CF441}" name="Tableau1" displayName="Tableau1" ref="A1:N276" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N276" xr:uid="{0F7BC900-E0E2-4118-953E-094BD53CF441}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F7BC900-E0E2-4118-953E-094BD53CF441}" name="Tableau1" displayName="Tableau1" ref="A1:N283" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N283" xr:uid="{0F7BC900-E0E2-4118-953E-094BD53CF441}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{55D53E94-E5AB-423A-8ED7-C46238DBE5EA}" name="id_membre"/>
     <tableColumn id="11" xr3:uid="{4D6AB369-5F00-463E-99DB-0F00860AD28E}" name="nom"/>
@@ -2218,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R276"/>
+  <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,16 +2316,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2339,7 +2384,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
@@ -2406,7 +2451,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J5">
         <v>1941</v>
@@ -2417,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -2432,7 +2477,7 @@
         <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2444,7 +2489,7 @@
         <v>1951</v>
       </c>
       <c r="N6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2452,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -2464,7 +2509,7 @@
         <v>2017</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2473,7 +2518,7 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1948</v>
@@ -2484,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -2499,13 +2544,13 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J8">
         <v>1931</v>
@@ -2516,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -2531,13 +2576,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J9">
         <v>1950</v>
@@ -2548,7 +2593,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -2563,13 +2608,13 @@
         <v>2009</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J10">
         <v>1963</v>
@@ -2580,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -2595,13 +2640,13 @@
         <v>2013</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J11">
         <v>1971</v>
@@ -2612,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2627,7 +2672,7 @@
         <v>2017</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -2644,10 +2689,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2659,13 +2704,13 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J13">
         <v>1974</v>
@@ -2676,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2688,16 +2733,16 @@
         <v>2022</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2705,10 +2750,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2720,13 +2765,13 @@
         <v>1996</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15">
         <v>1936</v>
@@ -2737,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -2752,13 +2797,13 @@
         <v>2005</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16">
         <v>1944</v>
@@ -2769,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2784,19 +2829,19 @@
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17">
         <v>1953</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2804,7 +2849,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2819,13 +2864,13 @@
         <v>2013</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2833,10 +2878,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2848,13 +2893,13 @@
         <v>2017</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J19">
         <v>1949</v>
@@ -2865,10 +2910,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2880,13 +2925,13 @@
         <v>2024</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20">
         <v>1978</v>
@@ -2897,10 +2942,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2909,16 +2954,16 @@
         <v>2024</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J21">
         <v>1975</v>
@@ -2929,7 +2974,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2944,7 +2989,7 @@
         <v>1986</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -2955,7 +3000,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -2970,7 +3015,7 @@
         <v>1990</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -2981,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -2996,13 +3041,13 @@
         <v>1998</v>
       </c>
       <c r="G24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
         <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J24">
         <v>1928</v>
@@ -3013,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>610</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3028,13 +3073,13 @@
         <v>2008</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>1958</v>
@@ -3045,7 +3090,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -3060,13 +3105,13 @@
         <v>2016</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J26">
         <v>1959</v>
@@ -3077,7 +3122,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3089,16 +3134,16 @@
         <v>2016</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J27">
         <v>1971</v>
@@ -3109,7 +3154,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -3124,13 +3169,13 @@
         <v>1988</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J28">
         <v>1921</v>
@@ -3141,7 +3186,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -3156,13 +3201,13 @@
         <v>1990</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J29">
         <v>1934</v>
@@ -3173,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -3188,13 +3233,13 @@
         <v>1998</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J30">
         <v>1936</v>
@@ -3211,7 +3256,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3226,13 +3271,13 @@
         <v>2000</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3240,7 +3285,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -3255,13 +3300,13 @@
         <v>2016</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3269,10 +3314,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3281,16 +3326,16 @@
         <v>2016</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3298,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -3313,13 +3358,13 @@
         <v>2000</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J34">
         <v>1926</v>
@@ -3330,10 +3375,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3345,13 +3390,13 @@
         <v>2001</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J35">
         <v>1934</v>
@@ -3362,10 +3407,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3377,13 +3422,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J36">
         <v>1943</v>
@@ -3394,7 +3439,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -3409,13 +3454,13 @@
         <v>2012</v>
       </c>
       <c r="G37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
         <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J37">
         <v>1951</v>
@@ -3426,7 +3471,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -3441,13 +3486,13 @@
         <v>2013</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J38">
         <v>1937</v>
@@ -3458,7 +3503,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -3473,13 +3518,13 @@
         <v>2022</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J39">
         <v>1964</v>
@@ -3490,7 +3535,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -3502,16 +3547,16 @@
         <v>2022</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J40">
         <v>1971</v>
@@ -3522,7 +3567,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -3537,13 +3582,13 @@
         <v>1987</v>
       </c>
       <c r="G41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J41">
         <v>1926</v>
@@ -3554,7 +3599,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -3569,13 +3614,13 @@
         <v>1990</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J42">
         <v>1944</v>
@@ -3592,7 +3637,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -3607,10 +3652,10 @@
         <v>1993</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I43" t="s">
         <v>37</v>
@@ -3624,7 +3669,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -3639,13 +3684,13 @@
         <v>1998</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J44">
         <v>1943</v>
@@ -3656,7 +3701,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -3671,13 +3716,13 @@
         <v>2002</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J45">
         <v>1953</v>
@@ -3688,7 +3733,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -3703,13 +3748,13 @@
         <v>2003</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J46">
         <v>1948</v>
@@ -3726,7 +3771,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -3741,13 +3786,13 @@
         <v>2008</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J47">
         <v>1941</v>
@@ -3758,7 +3803,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3773,13 +3818,13 @@
         <v>2022</v>
       </c>
       <c r="G48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J48">
         <v>1961</v>
@@ -3790,7 +3835,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -3802,13 +3847,13 @@
         <v>2022</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I49" t="s">
         <v>37</v>
@@ -3822,7 +3867,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -3837,13 +3882,13 @@
         <v>1996</v>
       </c>
       <c r="G50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H50" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J50">
         <v>1915</v>
@@ -3854,7 +3899,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
@@ -3869,13 +3914,13 @@
         <v>2002</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H51" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J51">
         <v>1930</v>
@@ -3886,7 +3931,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3901,10 +3946,10 @@
         <v>2005</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J52">
         <v>1948</v>
@@ -3915,7 +3960,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3930,10 +3975,10 @@
         <v>2012</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J53">
         <v>1937</v>
@@ -3944,7 +3989,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -3959,10 +4004,10 @@
         <v>2013</v>
       </c>
       <c r="G54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J54">
         <v>1939</v>
@@ -3973,10 +4018,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -3988,13 +4033,13 @@
         <v>2017</v>
       </c>
       <c r="G55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J55">
         <v>1956</v>
@@ -4005,10 +4050,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4017,13 +4062,13 @@
         <v>2017</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J56">
         <v>1958</v>
@@ -4034,10 +4079,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4049,10 +4094,10 @@
         <v>2005</v>
       </c>
       <c r="G57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J57">
         <v>1930</v>
@@ -4063,7 +4108,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -4078,10 +4123,10 @@
         <v>2012</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H58" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J58">
         <v>1935</v>
@@ -4093,7 +4138,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -4108,10 +4153,10 @@
         <v>2017</v>
       </c>
       <c r="G59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H59" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J59">
         <v>1945</v>
@@ -4122,10 +4167,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -4137,16 +4182,16 @@
         <v>2022</v>
       </c>
       <c r="G60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H60" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J60">
         <v>1955</v>
       </c>
       <c r="N60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4154,7 +4199,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -4166,13 +4211,13 @@
         <v>2022</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H61" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J61">
         <v>1948</v>
@@ -4183,7 +4228,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -4198,10 +4243,10 @@
         <v>2005</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H62" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J62">
         <v>1927</v>
@@ -4212,7 +4257,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -4227,10 +4272,10 @@
         <v>2012</v>
       </c>
       <c r="G63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H63" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J63">
         <v>1933</v>
@@ -4241,10 +4286,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -4256,10 +4301,10 @@
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H64" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J64">
         <v>1950</v>
@@ -4267,7 +4312,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="N64" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4275,7 +4320,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -4287,19 +4332,19 @@
         <v>2016</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H65" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J65">
         <v>1952</v>
       </c>
       <c r="N65" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4307,10 +4352,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -4322,16 +4367,16 @@
         <v>2022</v>
       </c>
       <c r="G66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H66" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J66">
         <v>1952</v>
       </c>
       <c r="N66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4339,10 +4384,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -4351,19 +4396,19 @@
         <v>2022</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H67" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J67">
         <v>1959</v>
       </c>
       <c r="N67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4371,10 +4416,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -4386,10 +4431,10 @@
         <v>1996</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J68">
         <v>1929</v>
@@ -4400,10 +4445,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -4415,13 +4460,13 @@
         <v>2000</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J69">
         <v>1930</v>
@@ -4432,10 +4477,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -4447,13 +4492,13 @@
         <v>2002</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I70" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J70">
         <v>1937</v>
@@ -4464,10 +4509,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>611</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -4479,13 +4524,13 @@
         <v>2005</v>
       </c>
       <c r="G71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
         <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J71">
         <v>1949</v>
@@ -4496,7 +4541,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>35</v>
@@ -4511,10 +4556,10 @@
         <v>2013</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J72">
         <v>1924</v>
@@ -4525,7 +4570,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -4540,16 +4585,16 @@
         <v>2022</v>
       </c>
       <c r="G73" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H73" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="J73">
         <v>1951</v>
       </c>
       <c r="N73" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4557,10 +4602,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -4572,16 +4617,16 @@
         <v>2021</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J74">
         <v>1962</v>
       </c>
       <c r="N74" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4589,10 +4634,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -4601,16 +4646,16 @@
         <v>2021</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J75">
         <v>1968</v>
@@ -4621,10 +4666,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -4636,19 +4681,19 @@
         <v>1990</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H76" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J76">
         <v>1937</v>
       </c>
       <c r="M76" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4656,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -4671,13 +4716,13 @@
         <v>1992</v>
       </c>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J77">
         <v>1949</v>
@@ -4688,10 +4733,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -4703,19 +4748,19 @@
         <v>1994</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I78" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J78">
         <v>1929</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4723,7 +4768,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -4738,27 +4783,27 @@
         <v>2008</v>
       </c>
       <c r="G79" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J79">
         <v>1933</v>
       </c>
       <c r="N79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" t="s">
         <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>210</v>
-      </c>
-      <c r="C80" t="s">
-        <v>81</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -4770,30 +4815,30 @@
         <v>2017</v>
       </c>
       <c r="G80" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J80">
         <v>1953</v>
       </c>
       <c r="N80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -4805,13 +4850,13 @@
         <v>2022</v>
       </c>
       <c r="G81" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J81">
         <v>1971</v>
@@ -4819,10 +4864,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -4837,27 +4882,27 @@
         <v>1985</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I82" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J82">
         <v>1943</v>
       </c>
       <c r="N82" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -4872,27 +4917,27 @@
         <v>1991</v>
       </c>
       <c r="G83" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H83" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I83" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J83">
         <v>1928</v>
       </c>
       <c r="N83" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -4907,10 +4952,10 @@
         <v>2005</v>
       </c>
       <c r="G84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J84">
         <v>1914</v>
@@ -4918,13 +4963,13 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -4936,13 +4981,13 @@
         <v>2013</v>
       </c>
       <c r="G85" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H85" t="s">
         <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J85">
         <v>1956</v>
@@ -4950,13 +4995,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>592</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -4968,24 +5013,24 @@
         <v>2017</v>
       </c>
       <c r="G86" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H86" t="s">
         <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -4994,24 +5039,24 @@
         <v>2017</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G87" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H87" t="s">
         <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s">
         <v>35</v>
@@ -5026,13 +5071,13 @@
         <v>2005</v>
       </c>
       <c r="G88" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="H88" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J88">
         <v>1944</v>
@@ -5040,10 +5085,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s">
         <v>35</v>
@@ -5058,27 +5103,27 @@
         <v>2009</v>
       </c>
       <c r="G89" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I89" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J89">
         <v>1945</v>
       </c>
       <c r="N89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
@@ -5093,7 +5138,7 @@
         <v>2017</v>
       </c>
       <c r="G90" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H90" t="s">
         <v>25</v>
@@ -5104,10 +5149,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
@@ -5119,33 +5164,33 @@
         <v>2017</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G91" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J91">
         <v>1951</v>
       </c>
       <c r="N91" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -5154,16 +5199,16 @@
         <v>2022</v>
       </c>
       <c r="F92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G92" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
         <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J92">
         <v>1972</v>
@@ -5171,10 +5216,10 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -5189,13 +5234,13 @@
         <v>1988</v>
       </c>
       <c r="G93" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H93" t="s">
         <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J93">
         <v>1921</v>
@@ -5207,15 +5252,15 @@
         <v>1998</v>
       </c>
       <c r="N93" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
@@ -5230,27 +5275,27 @@
         <v>2000</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H94" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I94" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J94">
         <v>1923</v>
       </c>
       <c r="N94" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C95" t="s">
         <v>35</v>
@@ -5265,10 +5310,10 @@
         <v>2005</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I95" t="s">
         <v>41</v>
@@ -5279,10 +5324,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -5297,24 +5342,24 @@
         <v>2013</v>
       </c>
       <c r="G96" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J96">
         <v>1935</v>
       </c>
       <c r="N96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
@@ -5329,13 +5374,13 @@
         <v>2017</v>
       </c>
       <c r="G97" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J97">
         <v>1957</v>
@@ -5343,10 +5388,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
@@ -5361,18 +5406,18 @@
         <v>1986</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -5384,27 +5429,27 @@
         <v>1990</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H99" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J99">
         <v>1932</v>
       </c>
       <c r="N99" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -5416,27 +5461,27 @@
         <v>1991</v>
       </c>
       <c r="G100" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J100">
         <v>1949</v>
       </c>
       <c r="N100" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -5448,21 +5493,21 @@
         <v>1998</v>
       </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H101" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -5474,18 +5519,18 @@
         <v>2008</v>
       </c>
       <c r="G102" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H102" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -5500,27 +5545,27 @@
         <v>2016</v>
       </c>
       <c r="G103" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J103">
         <v>1954</v>
       </c>
       <c r="N103" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -5529,10 +5574,10 @@
         <v>2016</v>
       </c>
       <c r="F104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G104" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
@@ -5541,15 +5586,15 @@
         <v>37</v>
       </c>
       <c r="N104" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -5561,13 +5606,13 @@
         <v>2021</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G105" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J105">
         <v>1948</v>
@@ -5575,10 +5620,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -5593,7 +5638,7 @@
         <v>1986</v>
       </c>
       <c r="G106" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H106" t="s">
         <v>25</v>
@@ -5604,13 +5649,13 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -5622,13 +5667,13 @@
         <v>1990</v>
       </c>
       <c r="G107" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J107">
         <v>1941</v>
@@ -5636,13 +5681,13 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -5654,13 +5699,13 @@
         <v>1998</v>
       </c>
       <c r="G108" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
       </c>
       <c r="I108" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J108">
         <v>1938</v>
@@ -5668,10 +5713,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
         <v>35</v>
@@ -5686,30 +5731,30 @@
         <v>2001</v>
       </c>
       <c r="G109" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H109" t="s">
         <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J109">
         <v>1951</v>
       </c>
       <c r="N109" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -5721,13 +5766,13 @@
         <v>2008</v>
       </c>
       <c r="G110" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
       </c>
       <c r="I110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J110">
         <v>1954</v>
@@ -5736,18 +5781,18 @@
         <v>2016</v>
       </c>
       <c r="L110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N110" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
         <v>35</v>
@@ -5762,13 +5807,13 @@
         <v>2016</v>
       </c>
       <c r="G111" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
       </c>
       <c r="I111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J111">
         <v>1952</v>
@@ -5776,13 +5821,13 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -5794,10 +5839,10 @@
         <v>2021</v>
       </c>
       <c r="G112" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H112" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J112">
         <v>1961</v>
@@ -5805,10 +5850,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
@@ -5820,16 +5865,16 @@
         <v>2021</v>
       </c>
       <c r="F113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G113" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I113" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J113">
         <v>1950</v>
@@ -5837,10 +5882,10 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -5855,30 +5900,30 @@
         <v>1998</v>
       </c>
       <c r="G114" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I114" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J114">
         <v>1907</v>
       </c>
       <c r="N114" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -5890,13 +5935,13 @@
         <v>2003</v>
       </c>
       <c r="G115" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H115" t="s">
         <v>27</v>
       </c>
       <c r="I115" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J115">
         <v>1933</v>
@@ -5908,15 +5953,15 @@
         <v>2012</v>
       </c>
       <c r="M115" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -5931,13 +5976,13 @@
         <v>2012</v>
       </c>
       <c r="G116" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H116" t="s">
         <v>27</v>
       </c>
       <c r="I116" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J116">
         <v>1964</v>
@@ -5945,10 +5990,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -5959,31 +6004,34 @@
       <c r="E117">
         <v>2012</v>
       </c>
-      <c r="F117">
-        <v>2016</v>
+      <c r="F117" t="s">
+        <v>82</v>
       </c>
       <c r="G117" t="s">
-        <v>279</v>
+        <v>602</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J117">
         <v>1958</v>
       </c>
+      <c r="N117" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -5995,13 +6043,13 @@
         <v>2021</v>
       </c>
       <c r="G118" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H118" t="s">
         <v>27</v>
       </c>
       <c r="I118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J118">
         <v>1955</v>
@@ -6009,10 +6057,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -6027,13 +6075,13 @@
         <v>2022</v>
       </c>
       <c r="G119" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H119" t="s">
         <v>27</v>
       </c>
       <c r="I119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J119">
         <v>1952</v>
@@ -6041,13 +6089,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -6056,33 +6104,33 @@
         <v>2017</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G120" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
       </c>
       <c r="I120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J120">
         <v>1974</v>
       </c>
       <c r="N120" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
@@ -6094,24 +6142,24 @@
         <v>1992</v>
       </c>
       <c r="G121" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H121" t="s">
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
@@ -6123,21 +6171,21 @@
         <v>1998</v>
       </c>
       <c r="G122" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H122" t="s">
         <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
@@ -6152,24 +6200,24 @@
         <v>2005</v>
       </c>
       <c r="G123" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H123" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I123" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J123">
         <v>1912</v>
       </c>
       <c r="N123" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>42</v>
@@ -6187,13 +6235,13 @@
         <v>2008</v>
       </c>
       <c r="G124" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H124" t="s">
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J124">
         <v>1941</v>
@@ -6201,13 +6249,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C125" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
@@ -6219,18 +6267,18 @@
         <v>2017</v>
       </c>
       <c r="G125" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H125" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>35</v>
@@ -6245,7 +6293,7 @@
         <v>2022</v>
       </c>
       <c r="G126" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
@@ -6259,13 +6307,13 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -6274,27 +6322,27 @@
         <v>2022</v>
       </c>
       <c r="F127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G127" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J127">
         <v>1981</v>
       </c>
       <c r="N127" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
@@ -6309,24 +6357,24 @@
         <v>1988</v>
       </c>
       <c r="G128" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H128" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J128">
         <v>1938</v>
       </c>
       <c r="N128" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C129" t="s">
         <v>35</v>
@@ -6341,30 +6389,30 @@
         <v>1992</v>
       </c>
       <c r="G129" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J129">
         <v>1923</v>
       </c>
       <c r="N129" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -6376,21 +6424,21 @@
         <v>1996</v>
       </c>
       <c r="G130" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H130" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N130" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -6405,21 +6453,21 @@
         <v>2005</v>
       </c>
       <c r="G131" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H131" t="s">
         <v>25</v>
       </c>
       <c r="I131" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -6434,21 +6482,21 @@
         <v>2009</v>
       </c>
       <c r="G132" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H132" t="s">
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -6463,30 +6511,30 @@
         <v>2013</v>
       </c>
       <c r="G133" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H133" t="s">
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J133">
         <v>1939</v>
       </c>
       <c r="N133" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -6498,27 +6546,27 @@
         <v>2022</v>
       </c>
       <c r="G134" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H134" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J134">
         <v>1957</v>
       </c>
       <c r="N134" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -6527,24 +6575,24 @@
         <v>2022</v>
       </c>
       <c r="F135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G135" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -6559,13 +6607,13 @@
         <v>1988</v>
       </c>
       <c r="G136" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H136" t="s">
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J136">
         <v>1923</v>
@@ -6573,10 +6621,10 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -6591,7 +6639,7 @@
         <v>1992</v>
       </c>
       <c r="G137" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H137" t="s">
         <v>25</v>
@@ -6602,10 +6650,10 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -6620,13 +6668,13 @@
         <v>1996</v>
       </c>
       <c r="G138" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H138" t="s">
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J138">
         <v>1933</v>
@@ -6634,13 +6682,13 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -6652,30 +6700,30 @@
         <v>2000</v>
       </c>
       <c r="G139" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H139" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I139" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J139">
         <v>1919</v>
       </c>
       <c r="N139" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
@@ -6687,21 +6735,21 @@
         <v>2009</v>
       </c>
       <c r="G140" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H140" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -6713,18 +6761,18 @@
         <v>2013</v>
       </c>
       <c r="G141" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H141" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
@@ -6739,13 +6787,13 @@
         <v>2022</v>
       </c>
       <c r="G142" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H142" t="s">
         <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J142">
         <v>1952</v>
@@ -6753,13 +6801,13 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -6768,27 +6816,27 @@
         <v>2022</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H143" t="s">
         <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
@@ -6800,13 +6848,13 @@
         <v>2000</v>
       </c>
       <c r="G144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H144" t="s">
         <v>25</v>
       </c>
       <c r="I144" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J144">
         <v>1933</v>
@@ -6814,13 +6862,13 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -6832,30 +6880,30 @@
         <v>2003</v>
       </c>
       <c r="G145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H145" t="s">
         <v>25</v>
       </c>
       <c r="I145" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J145">
         <v>1943</v>
       </c>
       <c r="N145" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C146" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
@@ -6867,13 +6915,13 @@
         <v>2009</v>
       </c>
       <c r="G146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H146" t="s">
         <v>25</v>
       </c>
       <c r="I146" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J146">
         <v>1946</v>
@@ -6881,13 +6929,13 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -6899,30 +6947,30 @@
         <v>2013</v>
       </c>
       <c r="G147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H147" t="s">
         <v>25</v>
       </c>
       <c r="I147" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J147">
         <v>1953</v>
       </c>
       <c r="N147" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="s">
         <v>80</v>
-      </c>
-      <c r="C148" t="s">
-        <v>81</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -6934,13 +6982,13 @@
         <v>2017</v>
       </c>
       <c r="G148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H148" t="s">
         <v>27</v>
       </c>
       <c r="I148" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J148">
         <v>1974</v>
@@ -6948,10 +6996,10 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -6963,27 +7011,27 @@
         <v>2022</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H149" t="s">
         <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N149" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -6998,13 +7046,13 @@
         <v>1986</v>
       </c>
       <c r="G150" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J150">
         <v>1914</v>
@@ -7012,10 +7060,10 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -7030,27 +7078,27 @@
         <v>1990</v>
       </c>
       <c r="G151" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H151" t="s">
         <v>25</v>
       </c>
       <c r="I151" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J151">
         <v>1943</v>
       </c>
       <c r="N151" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -7065,13 +7113,13 @@
         <v>1993</v>
       </c>
       <c r="G152" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H152" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I152" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J152">
         <v>1923</v>
@@ -7079,10 +7127,10 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -7097,10 +7145,10 @@
         <v>1998</v>
       </c>
       <c r="G153" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H153" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J153">
         <v>1940</v>
@@ -7108,10 +7156,10 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -7126,10 +7174,10 @@
         <v>2003</v>
       </c>
       <c r="G154" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H154" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J154">
         <v>1920</v>
@@ -7137,10 +7185,10 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -7155,10 +7203,10 @@
         <v>2012</v>
       </c>
       <c r="G155" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H155" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J155">
         <v>1942</v>
@@ -7166,10 +7214,10 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -7184,30 +7232,30 @@
         <v>2021</v>
       </c>
       <c r="G156" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H156" t="s">
         <v>27</v>
       </c>
       <c r="I156" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J156">
         <v>1949</v>
       </c>
       <c r="N156" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C157" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -7216,16 +7264,16 @@
         <v>2021</v>
       </c>
       <c r="F157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G157" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H157" t="s">
         <v>27</v>
       </c>
       <c r="I157" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J157">
         <v>1971</v>
@@ -7233,10 +7281,10 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
         <v>35</v>
@@ -7251,13 +7299,13 @@
         <v>1988</v>
       </c>
       <c r="G158" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I158" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J158">
         <v>1925</v>
@@ -7265,10 +7313,10 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -7283,13 +7331,13 @@
         <v>1994</v>
       </c>
       <c r="G159" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H159" t="s">
         <v>25</v>
       </c>
       <c r="I159" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J159">
         <v>1917</v>
@@ -7297,10 +7345,10 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
         <v>35</v>
@@ -7315,30 +7363,30 @@
         <v>2003</v>
       </c>
       <c r="G160" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H160" t="s">
         <v>25</v>
       </c>
       <c r="I160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J160">
         <v>1931</v>
       </c>
       <c r="N160" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -7350,27 +7398,27 @@
         <v>2012</v>
       </c>
       <c r="G161" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H161" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I161" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="N161" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -7382,27 +7430,27 @@
         <v>2021</v>
       </c>
       <c r="G162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H162" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I162" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J162">
         <v>1946</v>
       </c>
       <c r="N162" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C163" t="s">
         <v>35</v>
@@ -7414,16 +7462,16 @@
         <v>2021</v>
       </c>
       <c r="F163" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H163" t="s">
         <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J163">
         <v>1974</v>
@@ -7431,13 +7479,13 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C164" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -7449,7 +7497,7 @@
         <v>1990</v>
       </c>
       <c r="G164" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H164" t="s">
         <v>25</v>
@@ -7458,18 +7506,18 @@
         <v>1941</v>
       </c>
       <c r="N164" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C165" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -7481,30 +7529,30 @@
         <v>1994</v>
       </c>
       <c r="G165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H165" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I165" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J165">
         <v>1920</v>
       </c>
       <c r="N165" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -7516,13 +7564,13 @@
         <v>1998</v>
       </c>
       <c r="G166" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H166" t="s">
         <v>25</v>
       </c>
       <c r="I166" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J166">
         <v>1939</v>
@@ -7530,13 +7578,13 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -7548,30 +7596,30 @@
         <v>2008</v>
       </c>
       <c r="G167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H167" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I167" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J167">
         <v>1967</v>
       </c>
       <c r="N167" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -7583,24 +7631,24 @@
         <v>2016</v>
       </c>
       <c r="G168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H168" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J168">
         <v>1973</v>
       </c>
       <c r="N168" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -7615,24 +7663,24 @@
         <v>2021</v>
       </c>
       <c r="G169" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H169" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J169">
         <v>1950</v>
       </c>
       <c r="N169" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -7647,7 +7695,7 @@
         <v>1992</v>
       </c>
       <c r="G170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H170" t="s">
         <v>25</v>
@@ -7656,15 +7704,15 @@
         <v>1916</v>
       </c>
       <c r="N170" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -7679,27 +7727,27 @@
         <v>1996</v>
       </c>
       <c r="G171" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H171" t="s">
         <v>25</v>
       </c>
       <c r="I171" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J171">
         <v>1920</v>
       </c>
       <c r="N171" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -7714,7 +7762,7 @@
         <v>2005</v>
       </c>
       <c r="G172" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H172" t="s">
         <v>25</v>
@@ -7725,10 +7773,10 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -7743,10 +7791,10 @@
         <v>2008</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H173" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I173" t="s">
         <v>37</v>
@@ -7755,15 +7803,15 @@
         <v>1923</v>
       </c>
       <c r="N173" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -7778,24 +7826,24 @@
         <v>2009</v>
       </c>
       <c r="G174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H174" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J174">
         <v>1932</v>
       </c>
       <c r="N174" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
@@ -7810,13 +7858,13 @@
         <v>2012</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H175" t="s">
         <v>27</v>
       </c>
       <c r="I175" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="J175">
         <v>1941</v>
@@ -7824,10 +7872,10 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
@@ -7842,13 +7890,13 @@
         <v>2017</v>
       </c>
       <c r="G176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H176" t="s">
         <v>27</v>
       </c>
       <c r="I176" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J176">
         <v>1926</v>
@@ -7856,10 +7904,10 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -7874,7 +7922,7 @@
         <v>2023</v>
       </c>
       <c r="G177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H177" t="s">
         <v>25</v>
@@ -7886,15 +7934,15 @@
         <v>1940</v>
       </c>
       <c r="N177" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -7909,27 +7957,27 @@
         <v>1992</v>
       </c>
       <c r="G178" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H178" t="s">
         <v>25</v>
       </c>
       <c r="I178" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J178">
         <v>1914</v>
       </c>
       <c r="N178" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -7944,7 +7992,7 @@
         <v>1996</v>
       </c>
       <c r="G179" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H179" t="s">
         <v>25</v>
@@ -7953,15 +8001,15 @@
         <v>1917</v>
       </c>
       <c r="N179" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C180" t="s">
         <v>35</v>
@@ -7976,13 +8024,13 @@
         <v>2005</v>
       </c>
       <c r="G180" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H180" t="s">
         <v>25</v>
       </c>
       <c r="I180" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J180">
         <v>1924</v>
@@ -7990,10 +8038,10 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -8008,7 +8056,7 @@
         <v>2013</v>
       </c>
       <c r="G181" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
@@ -8019,10 +8067,10 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -8037,13 +8085,13 @@
         <v>2017</v>
       </c>
       <c r="G182" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H182" t="s">
         <v>25</v>
       </c>
       <c r="I182" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J182">
         <v>1942</v>
@@ -8051,10 +8099,10 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C183" t="s">
         <v>35</v>
@@ -8066,13 +8114,13 @@
         <v>2022</v>
       </c>
       <c r="F183" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G183" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H183" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J183">
         <v>1952</v>
@@ -8080,10 +8128,10 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C184" t="s">
         <v>35</v>
@@ -8098,27 +8146,27 @@
         <v>1988</v>
       </c>
       <c r="G184" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H184" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I184" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J184">
         <v>1916</v>
       </c>
       <c r="N184" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -8133,10 +8181,10 @@
         <v>1994</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H185" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I185" t="s">
         <v>37</v>
@@ -8145,15 +8193,15 @@
         <v>1920</v>
       </c>
       <c r="N185" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -8168,13 +8216,13 @@
         <v>2003</v>
       </c>
       <c r="G186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H186" t="s">
         <v>27</v>
       </c>
       <c r="I186" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J186">
         <v>1940</v>
@@ -8182,13 +8230,13 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
@@ -8200,30 +8248,30 @@
         <v>2008</v>
       </c>
       <c r="G187" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H187" t="s">
         <v>27</v>
       </c>
       <c r="I187" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J187">
         <v>1941</v>
       </c>
       <c r="N187" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D188" t="b">
         <v>0</v>
@@ -8235,13 +8283,13 @@
         <v>2016</v>
       </c>
       <c r="G188" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H188" t="s">
         <v>27</v>
       </c>
       <c r="I188" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J188">
         <v>1952</v>
@@ -8249,10 +8297,10 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -8267,10 +8315,10 @@
         <v>2022</v>
       </c>
       <c r="G189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H189" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I189" t="s">
         <v>37</v>
@@ -8281,10 +8329,10 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -8296,16 +8344,16 @@
         <v>2022</v>
       </c>
       <c r="F190" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H190" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I190" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J190">
         <v>1970</v>
@@ -8313,13 +8361,13 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -8331,13 +8379,13 @@
         <v>1986</v>
       </c>
       <c r="G191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H191" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I191" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J191">
         <v>1917</v>
@@ -8345,13 +8393,13 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -8363,13 +8411,13 @@
         <v>1990</v>
       </c>
       <c r="G192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H192" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I192" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J192">
         <v>1920</v>
@@ -8377,10 +8425,10 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -8395,27 +8443,27 @@
         <v>1994</v>
       </c>
       <c r="G193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H193" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I193" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J193">
         <v>1925</v>
       </c>
       <c r="N193" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -8430,13 +8478,13 @@
         <v>2003</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H194" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I194" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J194">
         <v>1936</v>
@@ -8444,13 +8492,13 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
@@ -8462,30 +8510,30 @@
         <v>2012</v>
       </c>
       <c r="G195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I195" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J195">
         <v>1948</v>
       </c>
       <c r="N195" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -8497,13 +8545,13 @@
         <v>2016</v>
       </c>
       <c r="G196" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H196" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I196" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J196">
         <v>1945</v>
@@ -8512,15 +8560,15 @@
         <v>2021</v>
       </c>
       <c r="L196" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
@@ -8535,30 +8583,30 @@
         <v>2021</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H197" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I197" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J197">
         <v>1965</v>
       </c>
       <c r="N197" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C198" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -8579,21 +8627,21 @@
         <v>1939</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="N198" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C199" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -8608,21 +8656,21 @@
         <v>34</v>
       </c>
       <c r="H199" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N199" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C200" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -8637,7 +8685,7 @@
         <v>34</v>
       </c>
       <c r="H200" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J200">
         <v>1934</v>
@@ -8645,13 +8693,13 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C201" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -8683,13 +8731,13 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>591</v>
       </c>
       <c r="C202" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -8709,13 +8757,16 @@
       <c r="J202">
         <v>1948</v>
       </c>
+      <c r="M202" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C203" t="s">
         <v>35</v>
@@ -8727,7 +8778,7 @@
         <v>2021</v>
       </c>
       <c r="F203" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G203" t="s">
         <v>34</v>
@@ -8736,7 +8787,7 @@
         <v>25</v>
       </c>
       <c r="I203" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J203">
         <v>1949</v>
@@ -8744,13 +8795,13 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C204" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -8768,7 +8819,7 @@
         <v>27</v>
       </c>
       <c r="I204" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J204">
         <v>1932</v>
@@ -8776,13 +8827,13 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C205" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
@@ -8800,7 +8851,7 @@
         <v>25</v>
       </c>
       <c r="I205" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J205">
         <v>1923</v>
@@ -8808,13 +8859,13 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
@@ -8832,24 +8883,24 @@
         <v>27</v>
       </c>
       <c r="I206" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M206" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N206" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C207" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -8867,7 +8918,7 @@
         <v>25</v>
       </c>
       <c r="I207" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J207">
         <v>1932</v>
@@ -8875,13 +8926,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C208" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -8904,10 +8955,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -8919,7 +8970,7 @@
         <v>2022</v>
       </c>
       <c r="F209" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G209" t="s">
         <v>34</v>
@@ -8936,13 +8987,13 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -8957,10 +9008,10 @@
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I210" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K210">
         <v>1992</v>
@@ -8971,13 +9022,13 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C211" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
@@ -8994,13 +9045,13 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C212" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
@@ -9015,18 +9066,18 @@
         <v>34</v>
       </c>
       <c r="N212" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C213" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -9041,18 +9092,18 @@
         <v>34</v>
       </c>
       <c r="H213" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -9073,15 +9124,15 @@
         <v>1977</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -9093,16 +9144,16 @@
         <v>2017</v>
       </c>
       <c r="F215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G215" t="s">
         <v>34</v>
       </c>
       <c r="H215" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I215" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J215">
         <v>1959</v>
@@ -9110,13 +9161,13 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C216" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -9133,10 +9184,10 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -9157,7 +9208,7 @@
         <v>25</v>
       </c>
       <c r="I217" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J217">
         <v>1944</v>
@@ -9165,10 +9216,10 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C218" t="s">
         <v>35</v>
@@ -9188,13 +9239,13 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C219" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
@@ -9211,13 +9262,13 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C220" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
@@ -9232,21 +9283,21 @@
         <v>34</v>
       </c>
       <c r="H220" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N220" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C221" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -9263,10 +9314,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -9287,7 +9338,7 @@
         <v>25</v>
       </c>
       <c r="I222" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J222">
         <v>1946</v>
@@ -9295,13 +9346,13 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
@@ -9319,18 +9370,18 @@
         <v>27</v>
       </c>
       <c r="I223" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>432</v>
+        <v>609</v>
       </c>
       <c r="C224" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -9348,7 +9399,7 @@
         <v>25</v>
       </c>
       <c r="I224" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J224">
         <v>1941</v>
@@ -9356,10 +9407,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -9380,15 +9431,15 @@
         <v>25</v>
       </c>
       <c r="I225" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -9409,7 +9460,7 @@
         <v>25</v>
       </c>
       <c r="I226" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J226">
         <v>1925</v>
@@ -9417,10 +9468,10 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -9446,10 +9497,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -9470,21 +9521,21 @@
         <v>25</v>
       </c>
       <c r="I228" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J228">
         <v>1949</v>
       </c>
       <c r="N228" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C229" t="s">
         <v>35</v>
@@ -9510,13 +9561,13 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C230" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
@@ -9525,7 +9576,7 @@
         <v>2017</v>
       </c>
       <c r="F230" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G230" t="s">
         <v>34</v>
@@ -9534,15 +9585,15 @@
         <v>25</v>
       </c>
       <c r="I230" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C231" t="s">
         <v>35</v>
@@ -9560,24 +9611,24 @@
         <v>34</v>
       </c>
       <c r="H231" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I231" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="J231">
         <v>1917</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -9595,21 +9646,21 @@
         <v>34</v>
       </c>
       <c r="H232" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I232" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C233" t="s">
         <v>35</v>
@@ -9638,10 +9689,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C234" t="s">
         <v>35</v>
@@ -9662,7 +9713,7 @@
         <v>25</v>
       </c>
       <c r="I234" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J234">
         <v>1938</v>
@@ -9670,10 +9721,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C235" t="s">
         <v>35</v>
@@ -9685,27 +9736,27 @@
         <v>2017</v>
       </c>
       <c r="F235" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G235" t="s">
         <v>34</v>
       </c>
       <c r="H235" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I235" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N235" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -9726,7 +9777,7 @@
         <v>27</v>
       </c>
       <c r="I236" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J236">
         <v>1921</v>
@@ -9734,10 +9785,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -9758,24 +9809,24 @@
         <v>25</v>
       </c>
       <c r="I237" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="J237">
         <v>1929</v>
       </c>
       <c r="N237" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C238" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
@@ -9793,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="I238" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J238">
         <v>1937</v>
@@ -9801,10 +9852,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -9825,7 +9876,7 @@
         <v>27</v>
       </c>
       <c r="I239" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J239">
         <v>1940</v>
@@ -9833,10 +9884,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -9857,7 +9908,7 @@
         <v>27</v>
       </c>
       <c r="I240" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J240">
         <v>1947</v>
@@ -9865,10 +9916,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
@@ -9886,10 +9937,10 @@
         <v>33</v>
       </c>
       <c r="H241" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I241" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J241">
         <v>1949</v>
@@ -9897,13 +9948,13 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C242" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
@@ -9921,7 +9972,7 @@
         <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J242">
         <v>1948</v>
@@ -9929,10 +9980,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C243" t="s">
         <v>35</v>
@@ -9953,7 +10004,7 @@
         <v>27</v>
       </c>
       <c r="I243" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J243">
         <v>1950</v>
@@ -9961,10 +10012,10 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
@@ -9976,7 +10027,7 @@
         <v>2019</v>
       </c>
       <c r="F244" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G244" t="s">
         <v>33</v>
@@ -9985,7 +10036,7 @@
         <v>27</v>
       </c>
       <c r="I244" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J244">
         <v>1970</v>
@@ -9993,10 +10044,10 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C245" t="s">
         <v>35</v>
@@ -10020,15 +10071,15 @@
         <v>1922</v>
       </c>
       <c r="N245" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C246" t="s">
         <v>35</v>
@@ -10052,15 +10103,15 @@
         <v>1927</v>
       </c>
       <c r="N246" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -10081,15 +10132,15 @@
         <v>27</v>
       </c>
       <c r="I247" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C248" t="s">
         <v>35</v>
@@ -10107,7 +10158,7 @@
         <v>33</v>
       </c>
       <c r="H248" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J248">
         <v>1943</v>
@@ -10115,10 +10166,10 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C249" t="s">
         <v>35</v>
@@ -10136,10 +10187,10 @@
         <v>33</v>
       </c>
       <c r="H249" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I249" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J249">
         <v>1951</v>
@@ -10147,13 +10198,13 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>458</v>
+        <v>590</v>
       </c>
       <c r="C250" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
@@ -10162,27 +10213,27 @@
         <v>2016</v>
       </c>
       <c r="F250" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G250" t="s">
         <v>33</v>
       </c>
       <c r="H250" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I250" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N250" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -10197,27 +10248,30 @@
         <v>1990</v>
       </c>
       <c r="G251" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
       </c>
       <c r="I251" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="J251">
         <v>1921</v>
       </c>
+      <c r="M251" t="s">
+        <v>590</v>
+      </c>
       <c r="N251" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C252" t="s">
         <v>35</v>
@@ -10232,27 +10286,27 @@
         <v>1992</v>
       </c>
       <c r="G252" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H252" t="s">
         <v>27</v>
       </c>
       <c r="I252" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J252">
         <v>1942</v>
       </c>
       <c r="N252" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C253" t="s">
         <v>35</v>
@@ -10267,27 +10321,27 @@
         <v>1994</v>
       </c>
       <c r="G253" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H253" t="s">
         <v>27</v>
       </c>
       <c r="I253" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J253">
         <v>1930</v>
       </c>
       <c r="N253" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C254" t="s">
         <v>35</v>
@@ -10302,27 +10356,27 @@
         <v>2000</v>
       </c>
       <c r="G254" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H254" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I254" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J254">
         <v>1939</v>
       </c>
       <c r="N254" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C255" t="s">
         <v>35</v>
@@ -10337,27 +10391,27 @@
         <v>2008</v>
       </c>
       <c r="G255" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H255" t="s">
         <v>27</v>
       </c>
       <c r="I255" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="J255">
         <v>1947</v>
       </c>
       <c r="N255" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C256" t="s">
         <v>35</v>
@@ -10372,27 +10426,27 @@
         <v>2009</v>
       </c>
       <c r="G256" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H256" t="s">
         <v>27</v>
       </c>
       <c r="I256" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J256">
         <v>1960</v>
       </c>
       <c r="N256" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C257" t="s">
         <v>35</v>
@@ -10407,27 +10461,27 @@
         <v>2013</v>
       </c>
       <c r="G257" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
       </c>
       <c r="I257" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="J257">
         <v>1941</v>
       </c>
       <c r="N257" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -10442,13 +10496,13 @@
         <v>2017</v>
       </c>
       <c r="G258" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H258" t="s">
         <v>27</v>
       </c>
       <c r="I258" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J258">
         <v>1961</v>
@@ -10456,13 +10510,13 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C259" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
@@ -10474,13 +10528,13 @@
         <v>2019</v>
       </c>
       <c r="G259" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H259" t="s">
         <v>27</v>
       </c>
       <c r="I259" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="J259">
         <v>1957</v>
@@ -10488,13 +10542,13 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C260" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
@@ -10506,24 +10560,24 @@
         <v>2021</v>
       </c>
       <c r="G260" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H260" t="s">
         <v>27</v>
       </c>
       <c r="I260" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C261" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
@@ -10535,7 +10589,7 @@
         <v>2022</v>
       </c>
       <c r="G261" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -10544,15 +10598,15 @@
         <v>1957</v>
       </c>
       <c r="N261" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C262" t="s">
         <v>35</v>
@@ -10564,27 +10618,27 @@
         <v>2022</v>
       </c>
       <c r="F262" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G262" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
       </c>
       <c r="I262" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="N262" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>472</v>
+        <v>595</v>
       </c>
       <c r="C263" t="s">
         <v>35</v>
@@ -10596,27 +10650,27 @@
         <v>1983</v>
       </c>
       <c r="F263">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="G263" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H263" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I263" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="J263">
-        <v>1948</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>473</v>
+        <v>596</v>
       </c>
       <c r="C264" t="s">
         <v>35</v>
@@ -10625,30 +10679,33 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="F264">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="G264" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H264" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I264" t="s">
-        <v>578</v>
+        <v>116</v>
       </c>
       <c r="J264">
         <v>1940</v>
       </c>
+      <c r="N264" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>474</v>
+        <v>597</v>
       </c>
       <c r="C265" t="s">
         <v>35</v>
@@ -10657,30 +10714,33 @@
         <v>0</v>
       </c>
       <c r="E265">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="F265">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="G265" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H265" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I265" t="s">
-        <v>578</v>
+        <v>124</v>
       </c>
       <c r="J265">
-        <v>1949</v>
+        <v>1946</v>
+      </c>
+      <c r="N265" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>475</v>
+        <v>598</v>
       </c>
       <c r="C266" t="s">
         <v>35</v>
@@ -10689,30 +10749,30 @@
         <v>0</v>
       </c>
       <c r="E266">
+        <v>1998</v>
+      </c>
+      <c r="F266">
         <v>2003</v>
       </c>
-      <c r="F266">
-        <v>2005</v>
-      </c>
       <c r="G266" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H266" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="I266" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="J266">
-        <v>1944</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>476</v>
+        <v>599</v>
       </c>
       <c r="C267" t="s">
         <v>35</v>
@@ -10721,27 +10781,27 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F267">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G267" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H267" t="s">
-        <v>161</v>
-      </c>
-      <c r="I267" t="s">
-        <v>578</v>
+        <v>25</v>
+      </c>
+      <c r="J267">
+        <v>1942</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>477</v>
+        <v>600</v>
       </c>
       <c r="C268" t="s">
         <v>35</v>
@@ -10750,59 +10810,65 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F268">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G268" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H268" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I268" t="s">
-        <v>579</v>
+        <v>210</v>
       </c>
       <c r="J268">
-        <v>1979</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>478</v>
+        <v>601</v>
       </c>
       <c r="C269" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F269">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="G269" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H269" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="I269" t="s">
-        <v>578</v>
+        <v>605</v>
+      </c>
+      <c r="J269">
+        <v>1954</v>
+      </c>
+      <c r="N269" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -10811,19 +10877,19 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>2022</v>
-      </c>
-      <c r="F270" t="s">
-        <v>83</v>
+        <v>1983</v>
+      </c>
+      <c r="F270">
+        <v>1992</v>
       </c>
       <c r="G270" t="s">
-        <v>459</v>
+        <v>62</v>
       </c>
       <c r="H270" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I270" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="J270">
         <v>1948</v>
@@ -10831,10 +10897,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C271" t="s">
         <v>35</v>
@@ -10843,94 +10909,94 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>2022</v>
-      </c>
-      <c r="F271" t="s">
-        <v>83</v>
+        <v>1993</v>
+      </c>
+      <c r="F271">
+        <v>2000</v>
       </c>
       <c r="G271" t="s">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="H271" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="I271" t="s">
-        <v>118</v>
+        <v>571</v>
       </c>
       <c r="J271">
-        <v>1955</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C272" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>2022</v>
-      </c>
-      <c r="F272" t="s">
-        <v>83</v>
+        <v>2000</v>
+      </c>
+      <c r="F272">
+        <v>2003</v>
       </c>
       <c r="G272" t="s">
-        <v>480</v>
+        <v>62</v>
       </c>
       <c r="H272" t="s">
-        <v>586</v>
+        <v>159</v>
+      </c>
+      <c r="I272" t="s">
+        <v>571</v>
       </c>
       <c r="J272">
-        <v>1974</v>
-      </c>
-      <c r="N272" t="s">
-        <v>581</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C273" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>2022</v>
-      </c>
-      <c r="F273" t="s">
-        <v>83</v>
+        <v>2003</v>
+      </c>
+      <c r="F273">
+        <v>2005</v>
       </c>
       <c r="G273" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H273" t="s">
-        <v>584</v>
+        <v>159</v>
+      </c>
+      <c r="I273" t="s">
+        <v>258</v>
       </c>
       <c r="J273">
-        <v>1985</v>
-      </c>
-      <c r="N273" t="s">
-        <v>582</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -10939,74 +11005,292 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>2022</v>
-      </c>
-      <c r="F274" t="s">
-        <v>83</v>
+        <v>2005</v>
+      </c>
+      <c r="F274">
+        <v>2009</v>
       </c>
       <c r="G274" t="s">
-        <v>482</v>
+        <v>62</v>
       </c>
       <c r="H274" t="s">
-        <v>367</v>
-      </c>
-      <c r="N274" t="s">
-        <v>583</v>
+        <v>159</v>
+      </c>
+      <c r="I274" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C275" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D275" t="b">
         <v>0</v>
       </c>
       <c r="E275">
-        <v>2022</v>
-      </c>
-      <c r="F275" t="s">
-        <v>83</v>
+        <v>2009</v>
+      </c>
+      <c r="F275">
+        <v>2012</v>
       </c>
       <c r="G275" t="s">
-        <v>482</v>
+        <v>62</v>
       </c>
       <c r="H275" t="s">
-        <v>585</v>
+        <v>25</v>
+      </c>
+      <c r="I275" t="s">
+        <v>572</v>
+      </c>
+      <c r="J275">
+        <v>1979</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C276" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276">
+        <v>2012</v>
+      </c>
+      <c r="F276">
         <v>2022</v>
       </c>
-      <c r="F276" t="s">
-        <v>83</v>
-      </c>
       <c r="G276" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H276" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="I276" t="s">
-        <v>541</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>473</v>
+      </c>
+      <c r="C277" t="s">
+        <v>35</v>
+      </c>
+      <c r="D277" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>2022</v>
+      </c>
+      <c r="F277" t="s">
+        <v>82</v>
+      </c>
+      <c r="G277" t="s">
+        <v>62</v>
+      </c>
+      <c r="H277" t="s">
+        <v>94</v>
+      </c>
+      <c r="I277" t="s">
+        <v>573</v>
+      </c>
+      <c r="J277">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>478</v>
+      </c>
+      <c r="C278" t="s">
+        <v>35</v>
+      </c>
+      <c r="D278" t="b">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>2022</v>
+      </c>
+      <c r="F278" t="s">
+        <v>82</v>
+      </c>
+      <c r="G278" t="s">
+        <v>474</v>
+      </c>
+      <c r="H278" t="s">
+        <v>27</v>
+      </c>
+      <c r="I278" t="s">
+        <v>116</v>
+      </c>
+      <c r="J278">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>479</v>
+      </c>
+      <c r="C279" t="s">
+        <v>80</v>
+      </c>
+      <c r="D279" t="b">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>2022</v>
+      </c>
+      <c r="F279" t="s">
+        <v>82</v>
+      </c>
+      <c r="G279" t="s">
+        <v>474</v>
+      </c>
+      <c r="H279" t="s">
+        <v>579</v>
+      </c>
+      <c r="J279">
+        <v>1974</v>
+      </c>
+      <c r="N279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>480</v>
+      </c>
+      <c r="C280" t="s">
+        <v>80</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>2022</v>
+      </c>
+      <c r="F280" t="s">
+        <v>82</v>
+      </c>
+      <c r="G280" t="s">
+        <v>66</v>
+      </c>
+      <c r="H280" t="s">
+        <v>577</v>
+      </c>
+      <c r="J280">
+        <v>1985</v>
+      </c>
+      <c r="N280" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>481</v>
+      </c>
+      <c r="C281" t="s">
+        <v>35</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>2022</v>
+      </c>
+      <c r="F281" t="s">
+        <v>82</v>
+      </c>
+      <c r="G281" t="s">
+        <v>476</v>
+      </c>
+      <c r="H281" t="s">
+        <v>363</v>
+      </c>
+      <c r="N281" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>482</v>
+      </c>
+      <c r="C282" t="s">
+        <v>80</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>2022</v>
+      </c>
+      <c r="F282" t="s">
+        <v>82</v>
+      </c>
+      <c r="G282" t="s">
+        <v>476</v>
+      </c>
+      <c r="H282" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>483</v>
+      </c>
+      <c r="C283" t="s">
+        <v>80</v>
+      </c>
+      <c r="D283" t="b">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>2022</v>
+      </c>
+      <c r="F283" t="s">
+        <v>82</v>
+      </c>
+      <c r="G283" t="s">
+        <v>72</v>
+      </c>
+      <c r="H283" t="s">
+        <v>192</v>
+      </c>
+      <c r="I283" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -11018,8 +11302,9 @@
     <hyperlink ref="N232" r:id="rId4" xr:uid="{F6506060-5359-4DDB-98B8-163A99C074A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11082,7 +11367,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -11133,13 +11418,13 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11150,19 +11435,19 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -11173,19 +11458,19 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -11199,16 +11484,16 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
         <v>71</v>
-      </c>
-      <c r="K10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -11222,135 +11507,135 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B33" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_auteur.xlsx
+++ b/data/raw/collected_metadata/metadata_auteur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D50337-D862-4D48-8312-BC9FF2D45EBA}"/>
+  <xr:revisionPtr revIDLastSave="562" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311AD48A-4704-4C0F-A860-278C4421C6F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="613">
   <si>
     <t>id_membre</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Jean-François Collange</t>
   </si>
   <si>
-    <t>Olivier Abdel</t>
-  </si>
-  <si>
     <t>Louis Schweitzer</t>
   </si>
   <si>
@@ -756,9 +753,6 @@
     <t>Philippe Rouvillois</t>
   </si>
   <si>
-    <t>Hervé Chneweiss</t>
-  </si>
-  <si>
     <t>MinAffairesSociales</t>
   </si>
   <si>
@@ -1317,9 +1311,6 @@
     <t>Geneviève Guillemin</t>
   </si>
   <si>
-    <t>Gérard Bréat</t>
-  </si>
-  <si>
     <t>Carole Moquin-Pattey</t>
   </si>
   <si>
@@ -1434,9 +1425,6 @@
     <t>Michèle Cottier</t>
   </si>
   <si>
-    <t>Didier Dreyfus</t>
-  </si>
-  <si>
     <t>Jean-Pierre Renard</t>
   </si>
   <si>
@@ -1482,397 +1470,412 @@
     <t>Noémie Nauleau</t>
   </si>
   <si>
+    <t>Sylviane Giampino</t>
+  </si>
+  <si>
+    <t>Cécile Duflot</t>
+  </si>
+  <si>
+    <t>MinJustice;Cour de cassation</t>
+  </si>
+  <si>
+    <t>MinRecherche;MinIndustrie</t>
+  </si>
+  <si>
+    <t>Cour de cassation;MinJustice</t>
+  </si>
+  <si>
+    <t>PM;MinIndustrie</t>
+  </si>
+  <si>
+    <t>MinSanté;MinTravail</t>
+  </si>
+  <si>
+    <t>nom alter</t>
+  </si>
+  <si>
+    <t>MinTravail;Collège de France</t>
+  </si>
+  <si>
+    <t>MinEducation;Collège de France;MinDroitsFemmes</t>
+  </si>
+  <si>
+    <t>dirige l'ENS et PSL, CdF de 16-21, DroitsFemmes 21-NOW</t>
+  </si>
+  <si>
+    <t>Poste à l'INRIA,MinIndustrie à partir de 2022</t>
+  </si>
+  <si>
+    <t>rentre à l'ens cachan en 1994 - 20 ans, MinTravail à partir de 2022</t>
+  </si>
+  <si>
+    <t>Nommé pour la 1ere foi juge en 1976. Moins 3 ans de ENM (approx) et 21 ans M1. Min Justice à partir de 2021</t>
+  </si>
+  <si>
+    <t>Notice BNF; nommé une première fois par le MJ puis une seconde au nom de la CC. Nommé par Cour de Cassation à partir de 2012</t>
+  </si>
+  <si>
+    <t>MinAffairesSociales;Institut Pasteur</t>
+  </si>
+  <si>
+    <t>nommée par l'institut pasteur à partir de 2021</t>
+  </si>
+  <si>
+    <t>Institut Pasteur;CNRS + INSERM</t>
+  </si>
+  <si>
+    <t>nommé à partir de 2017 par MinIndustrie</t>
+  </si>
+  <si>
+    <t>début2,fin2</t>
+  </si>
+  <si>
+    <t>seulement quand discontinue sinon j'ai accolé pour des raisons de faciliter</t>
+  </si>
+  <si>
+    <t>Président du CCNE à partir de 2012 seulement</t>
+  </si>
+  <si>
+    <t>Note issue de Idref sur la biographie et les activités : Professeur au Collège de France (1977-1987), titulaire de la chaire de Médecine expérimentale  Note publique d'information : Médecin. Membre de l'Institut, de l'Académie des sciences, prix Nobel de médecine 1980</t>
+  </si>
+  <si>
+    <t>prix nobel de médecine en 1965</t>
+  </si>
+  <si>
+    <t>médecin;biologiste</t>
+  </si>
+  <si>
+    <t>ça doit être un autre car le robert naquet correspondant à l'académie des sciences est mort en 2005, présenté comme consultant externe ccne et membre du COPé voir https://www.nss-journal.org/articles/nss/pdf/1996/04/nss19960404p352.pdf</t>
+  </si>
+  <si>
+    <t>comité d'éthique du CNRS, collège de France</t>
+  </si>
+  <si>
+    <t>épidémiologie</t>
+  </si>
+  <si>
+    <t>membre de l'académie des sciences</t>
+  </si>
+  <si>
+    <t>résistant</t>
+  </si>
+  <si>
+    <t>mort en 2023, ref catho</t>
+  </si>
+  <si>
+    <t>ref catho</t>
+  </si>
+  <si>
+    <t>Président de l'académie national de médecine, https://www.academie-medecine.fr/eloge-de-claude-laroche-1917-2003/?lang=en ref catho</t>
+  </si>
+  <si>
+    <t>Lié au scandale du sang contaminé; académie des sciences, collège de France</t>
+  </si>
+  <si>
+    <t>MinIndustrie;Collège de France</t>
+  </si>
+  <si>
+    <t>membre de l'académie des sciences morales</t>
+  </si>
+  <si>
+    <t>microbiologie</t>
+  </si>
+  <si>
+    <t>biochimie</t>
+  </si>
+  <si>
+    <t>ARN messager</t>
+  </si>
+  <si>
+    <t>virologue</t>
+  </si>
+  <si>
+    <t>académie des sciences</t>
+  </si>
+  <si>
+    <t>développement</t>
+  </si>
+  <si>
+    <t>Béatrice Descamps</t>
+  </si>
+  <si>
+    <t>Béatrice Descamps-Latscha</t>
+  </si>
+  <si>
+    <t>idref : http://www.idref.fr/12710335X/id</t>
+  </si>
+  <si>
+    <t>https://jorfsearch.steinertriples.ch/name/Fran%C3%A7oise%20Moisand / https://www.ecole.org/fr/orateurs/1061-francoise-moisand</t>
+  </si>
+  <si>
+    <t>génétique;pédiatrie</t>
+  </si>
+  <si>
+    <t>psychiatrie;pédiatrie</t>
+  </si>
+  <si>
+    <t>Simone Bateman-Novaes</t>
+  </si>
+  <si>
+    <t>thèse en 1979</t>
+  </si>
+  <si>
+    <t>psychiatrie;neurologie</t>
+  </si>
+  <si>
+    <t>chimie</t>
+  </si>
+  <si>
+    <t>https://www.dgdr.cnrs.fr/bo/2004/06-04/comi-bo0604-dec040012drh.htm</t>
+  </si>
+  <si>
+    <t>écologie</t>
+  </si>
+  <si>
+    <t>https://comite-ethique.cnrs.fr/project/alice-rene/ rentre à normal cachan en 1997</t>
+  </si>
+  <si>
+    <t>ministre chargé de la recherche</t>
+  </si>
+  <si>
+    <t>politicien;haut fonctionnaire</t>
+  </si>
+  <si>
+    <t>pharmacologie</t>
+  </si>
+  <si>
+    <t>génétique;immunologie</t>
+  </si>
+  <si>
+    <t>collège de France</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Daniel_Schwartz frère de laurent schwartz ! X aussi ! Membre de l'académie des sciences https://www.inserm.fr/portrait/histoire/daniel-schwartz/</t>
+  </si>
+  <si>
+    <t>biostatistique;épidémiologie</t>
+  </si>
+  <si>
+    <t>https://www.medecinesciences.org/en/articles/medsci/full_html/2019/10/msc190276/msc190276.html X aussi, a travaillé auprès de Daniel Schwartz, je met donc les même descriptions</t>
+  </si>
+  <si>
+    <t>Claude Delpuech</t>
+  </si>
+  <si>
+    <t>intervention devant les députés : https://2017-2022.nosdeputes.fr/15/intervention/286247 https://jorfsearch.steinertriples.ch/doc/JORFTEXT000045641869</t>
+  </si>
+  <si>
+    <t>psychologie</t>
+  </si>
+  <si>
+    <t>handicaps</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Michel_Fardeau</t>
+  </si>
+  <si>
+    <t>sciences politiques</t>
+  </si>
+  <si>
+    <t>chercheur;journaliste</t>
+  </si>
+  <si>
+    <t>https://data.bnf.fr/fr/12277449/ivan_assenmacher/fr.pdf</t>
+  </si>
+  <si>
+    <t>https://curie.fr/personne/mounira-amor-gueret</t>
+  </si>
+  <si>
+    <t>président de montpellier I : https://www.lemonde.fr/archives/article/1979/09/29/m-jacques-mirouze-est-elu-president-de-montpellier-i_2785165_1819218.html?random=839596971</t>
+  </si>
+  <si>
+    <t>diabétologie;endocrinologie</t>
+  </si>
+  <si>
+    <t>id ref : Agrégé de droit public et de science politique, docteur en droit. Président de l'Université de Strasbourg III (en 1987). Directeur au service juridique du Conseil de l'Union européenne (en 1998)</t>
+  </si>
+  <si>
+    <t>idref : Docteur en droit et agrégé de droit privé. Professeur de droit civil et de droit des assurances à l'Université de droit, d'économie et de sciences sociales Paris II-Assas, président de l'Université Paris II (Panthéon-Assas) (en 1988)</t>
+  </si>
+  <si>
+    <t>idref : Ancien élève de l'École normale de Saint-Cloud. Assistant à l'École normale supérieure (1963-1966). Enseignant à l'Université de Nice (1967-1980). Élu président de cette université (1989-1994). Premier vice-président de la Conférence des présidents d'université (1990-1992). Nommé recteur de l'Académie de Corse (1997-09-17)</t>
+  </si>
+  <si>
+    <t>letudiant : Ancien président d'Aix-Marseille 1 (2007-2011) https://www.letudiant.fr/educpros/personnalites/caverni-jean-paul-17.html</t>
+  </si>
+  <si>
+    <t>letudiant : Ancien président de l’université de Picardie Jules Verne https://www.letudiant.fr/educpros/personnalites/faure-georges-61.html</t>
+  </si>
+  <si>
+    <t>magistrat</t>
+  </si>
+  <si>
+    <t>politicien;avocat</t>
+  </si>
+  <si>
+    <t>gastro-entérologue</t>
+  </si>
+  <si>
+    <t>https://www.santementale.fr/2016/11/eloge-de-la-clinique/</t>
+  </si>
+  <si>
+    <t>littérature</t>
+  </si>
+  <si>
+    <t>physiologie</t>
+  </si>
+  <si>
+    <t>https://www.letudiant.fr/educpros/personnalites/cottier-michele.html</t>
+  </si>
+  <si>
+    <t>réanimation</t>
+  </si>
+  <si>
+    <t>https://francesoir.fr/politique-monde-opinions-tribunes/chronique-ndeg24-les-conflits-dinterets-pendant-la-crise-du-covid</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>agronomie</t>
+  </si>
+  <si>
+    <t>réanimation;pédiatrie</t>
+  </si>
+  <si>
+    <t>environnement</t>
+  </si>
+  <si>
+    <t>article du monde science et techno 15/09/2014 par pascale santi : https://renaloo.com/wp-content/uploads/2014/09/Le-Monde-17092014-YvanieCaille.pdf On peut approximer qu'elle a 28 ans en 2002 d'après l'article</t>
+  </si>
+  <si>
+    <t>https://www.handidactique.org/2016/07/rencontre-avec-noemie-nauleau/</t>
+  </si>
+  <si>
+    <t>2 personnes : président de la caf, ingénieur géologue</t>
+  </si>
+  <si>
+    <t>référent handicap;militant</t>
+  </si>
+  <si>
+    <t>psychologue;militant</t>
+  </si>
+  <si>
+    <t>ingénieur;militant</t>
+  </si>
+  <si>
+    <t>juriste;ITA</t>
+  </si>
+  <si>
+    <t>INSERM;PR</t>
+  </si>
+  <si>
+    <t>Défenseur des droits, formation de juriste</t>
+  </si>
+  <si>
+    <t>aussi cadre privé</t>
+  </si>
+  <si>
+    <t>devenu cadre privé</t>
+  </si>
+  <si>
+    <t>politicien;médecin;</t>
+  </si>
+  <si>
+    <t>militant ?</t>
+  </si>
+  <si>
+    <t>devenu haut fonctionnaire ?</t>
+  </si>
+  <si>
+    <t>mathématiques</t>
+  </si>
+  <si>
+    <t>Labrusse-Riou</t>
+  </si>
+  <si>
+    <t>Mounira Amor-Guéret</t>
+  </si>
+  <si>
+    <t>Anne Durandy-Torre</t>
+  </si>
+  <si>
+    <t>Frédérique Kuttenn</t>
+  </si>
+  <si>
+    <t>Jean-Claude Ameisen</t>
+  </si>
+  <si>
+    <t>INRAE;MinRecherche</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Curtes</t>
+  </si>
+  <si>
+    <t>Philippe Lucas</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Dedonder</t>
+  </si>
+  <si>
+    <t>Jean Leonardelli</t>
+  </si>
+  <si>
+    <t>Claude Burlet</t>
+  </si>
+  <si>
+    <t>Didier Truchet</t>
+  </si>
+  <si>
+    <t>Véronique Fournier</t>
+  </si>
+  <si>
+    <t>MinTravail;France Universités</t>
+  </si>
+  <si>
+    <t>Nommé par France Universités à partir de 2016</t>
+  </si>
+  <si>
+    <t>Véronique Fournier a été nommée Présidente du conseil d'orientation stratégique du Centre national des soins palliatifs et de la fin de vie par arrêté de la ministre des affaires sociales et de la santé en date du 7 avril 2016.  : https://www.ethique-hdf.fr/detail-evenement/veronique-fournier-nommee-presidente-du-centre-national-des-soins-palliatifs-et-de-la-fin-de-vie/</t>
+  </si>
+  <si>
+    <t>cardiologie;santé publique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wikipedia : Jean-Pierre Dedonder, né le 6 mai 1946, est un universitaire français, spécialiste en physique nucléaire théorique. Il dirige l'université Paris VII de 1992 à 1997 et est recteur de l'académie de Créteil de mai 1998 à juin 2000 </t>
+  </si>
+  <si>
+    <t>idref : http://www.idref.fr/026997177/id, Professeur de sociologie à l'université de Lyon II-Lumière (en 1990). Recteur de l'académie de Bordeaux puis de Caen (depuis 1993). Membre du Comité national d'éthique (de 1986 à 1994) et du Groupe de réflexion sur l'enseignement supérieur</t>
+  </si>
+  <si>
+    <t>médecine sociale;travail;toxicologie</t>
+  </si>
+  <si>
+    <t>Annick Alpérovitch</t>
+  </si>
+  <si>
+    <t>Sadek Béloucif</t>
+  </si>
+  <si>
+    <t>Anne Cambon-Thomsen</t>
+  </si>
+  <si>
+    <t>Didier Dreyfuss</t>
+  </si>
+  <si>
+    <t>Annabelle Desgrées du Loû</t>
+  </si>
+  <si>
+    <t>Olivier Abel</t>
+  </si>
+  <si>
+    <t>Gérard Bréart</t>
+  </si>
+  <si>
     <t>Jean-Louis Haurié</t>
   </si>
   <si>
-    <t>Sylviane Giampino</t>
-  </si>
-  <si>
-    <t>Cécile Duflot</t>
-  </si>
-  <si>
-    <t>MinJustice;Cour de cassation</t>
-  </si>
-  <si>
-    <t>MinRecherche;MinIndustrie</t>
-  </si>
-  <si>
-    <t>Cour de cassation;MinJustice</t>
-  </si>
-  <si>
-    <t>PM;MinIndustrie</t>
-  </si>
-  <si>
-    <t>MinSanté;MinTravail</t>
-  </si>
-  <si>
-    <t>nom alter</t>
-  </si>
-  <si>
-    <t>MinTravail;Collège de France</t>
-  </si>
-  <si>
-    <t>MinEducation;Collège de France;MinDroitsFemmes</t>
-  </si>
-  <si>
-    <t>dirige l'ENS et PSL, CdF de 16-21, DroitsFemmes 21-NOW</t>
-  </si>
-  <si>
-    <t>Poste à l'INRIA,MinIndustrie à partir de 2022</t>
-  </si>
-  <si>
-    <t>rentre à l'ens cachan en 1994 - 20 ans, MinTravail à partir de 2022</t>
-  </si>
-  <si>
-    <t>Nommé pour la 1ere foi juge en 1976. Moins 3 ans de ENM (approx) et 21 ans M1. Min Justice à partir de 2021</t>
-  </si>
-  <si>
-    <t>Notice BNF; nommé une première fois par le MJ puis une seconde au nom de la CC. Nommé par Cour de Cassation à partir de 2012</t>
-  </si>
-  <si>
-    <t>MinAffairesSociales;Institut Pasteur</t>
-  </si>
-  <si>
-    <t>nommée par l'institut pasteur à partir de 2021</t>
-  </si>
-  <si>
-    <t>Institut Pasteur;CNRS + INSERM</t>
-  </si>
-  <si>
-    <t>nommé à partir de 2017 par MinIndustrie</t>
-  </si>
-  <si>
-    <t>début2,fin2</t>
-  </si>
-  <si>
-    <t>seulement quand discontinue sinon j'ai accolé pour des raisons de faciliter</t>
-  </si>
-  <si>
-    <t>Président du CCNE à partir de 2012 seulement</t>
-  </si>
-  <si>
-    <t>Note issue de Idref sur la biographie et les activités : Professeur au Collège de France (1977-1987), titulaire de la chaire de Médecine expérimentale  Note publique d'information : Médecin. Membre de l'Institut, de l'Académie des sciences, prix Nobel de médecine 1980</t>
-  </si>
-  <si>
-    <t>prix nobel de médecine en 1965</t>
-  </si>
-  <si>
-    <t>médecin;biologiste</t>
-  </si>
-  <si>
-    <t>ça doit être un autre car le robert naquet correspondant à l'académie des sciences est mort en 2005, présenté comme consultant externe ccne et membre du COPé voir https://www.nss-journal.org/articles/nss/pdf/1996/04/nss19960404p352.pdf</t>
-  </si>
-  <si>
-    <t>comité d'éthique du CNRS, collège de France</t>
-  </si>
-  <si>
-    <t>épidémiologie</t>
-  </si>
-  <si>
-    <t>membre de l'académie des sciences</t>
-  </si>
-  <si>
-    <t>résistant</t>
-  </si>
-  <si>
-    <t>mort en 2023, ref catho</t>
-  </si>
-  <si>
-    <t>ref catho</t>
-  </si>
-  <si>
-    <t>Président de l'académie national de médecine, https://www.academie-medecine.fr/eloge-de-claude-laroche-1917-2003/?lang=en ref catho</t>
-  </si>
-  <si>
-    <t>Lié au scandale du sang contaminé; académie des sciences, collège de France</t>
-  </si>
-  <si>
-    <t>MinIndustrie;Collège de France</t>
-  </si>
-  <si>
-    <t>membre de l'académie des sciences morales</t>
-  </si>
-  <si>
-    <t>microbiologie</t>
-  </si>
-  <si>
-    <t>biochimie</t>
-  </si>
-  <si>
-    <t>ARN messager</t>
-  </si>
-  <si>
-    <t>virologue</t>
-  </si>
-  <si>
-    <t>académie des sciences</t>
-  </si>
-  <si>
-    <t>développement</t>
-  </si>
-  <si>
-    <t>Béatrice Descamps</t>
-  </si>
-  <si>
-    <t>Béatrice Descamps-Latscha</t>
-  </si>
-  <si>
-    <t>idref : http://www.idref.fr/12710335X/id</t>
-  </si>
-  <si>
-    <t>https://jorfsearch.steinertriples.ch/name/Fran%C3%A7oise%20Moisand / https://www.ecole.org/fr/orateurs/1061-francoise-moisand</t>
-  </si>
-  <si>
-    <t>génétique;pédiatrie</t>
-  </si>
-  <si>
-    <t>psychiatrie;pédiatrie</t>
-  </si>
-  <si>
-    <t>Simone Bateman-Novaes</t>
-  </si>
-  <si>
-    <t>thèse en 1979</t>
-  </si>
-  <si>
-    <t>psychiatrie;neurologie</t>
-  </si>
-  <si>
-    <t>chimie</t>
-  </si>
-  <si>
-    <t>https://www.dgdr.cnrs.fr/bo/2004/06-04/comi-bo0604-dec040012drh.htm</t>
-  </si>
-  <si>
-    <t>écologie</t>
-  </si>
-  <si>
-    <t>https://comite-ethique.cnrs.fr/project/alice-rene/ rentre à normal cachan en 1997</t>
-  </si>
-  <si>
-    <t>ministre chargé de la recherche</t>
-  </si>
-  <si>
-    <t>politicien;haut fonctionnaire</t>
-  </si>
-  <si>
-    <t>pharmacologie</t>
-  </si>
-  <si>
-    <t>génétique;immunologie</t>
-  </si>
-  <si>
-    <t>collège de France</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Daniel_Schwartz frère de laurent schwartz ! X aussi ! Membre de l'académie des sciences https://www.inserm.fr/portrait/histoire/daniel-schwartz/</t>
-  </si>
-  <si>
-    <t>biostatistique;épidémiologie</t>
-  </si>
-  <si>
-    <t>https://www.medecinesciences.org/en/articles/medsci/full_html/2019/10/msc190276/msc190276.html X aussi, a travaillé auprès de Daniel Schwartz, je met donc les même descriptions</t>
-  </si>
-  <si>
-    <t>Claude Delpuech</t>
-  </si>
-  <si>
-    <t>intervention devant les députés : https://2017-2022.nosdeputes.fr/15/intervention/286247 https://jorfsearch.steinertriples.ch/doc/JORFTEXT000045641869</t>
-  </si>
-  <si>
-    <t>psychologie</t>
-  </si>
-  <si>
-    <t>handicaps</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Michel_Fardeau</t>
-  </si>
-  <si>
-    <t>sciences politiques</t>
-  </si>
-  <si>
-    <t>chercheur;journaliste</t>
-  </si>
-  <si>
-    <t>https://data.bnf.fr/fr/12277449/ivan_assenmacher/fr.pdf</t>
-  </si>
-  <si>
-    <t>https://curie.fr/personne/mounira-amor-gueret</t>
-  </si>
-  <si>
-    <t>président de montpellier I : https://www.lemonde.fr/archives/article/1979/09/29/m-jacques-mirouze-est-elu-president-de-montpellier-i_2785165_1819218.html?random=839596971</t>
-  </si>
-  <si>
-    <t>diabétologie;endocrinologie</t>
-  </si>
-  <si>
-    <t>id ref : Agrégé de droit public et de science politique, docteur en droit. Président de l'Université de Strasbourg III (en 1987). Directeur au service juridique du Conseil de l'Union européenne (en 1998)</t>
-  </si>
-  <si>
-    <t>idref : Docteur en droit et agrégé de droit privé. Professeur de droit civil et de droit des assurances à l'Université de droit, d'économie et de sciences sociales Paris II-Assas, président de l'Université Paris II (Panthéon-Assas) (en 1988)</t>
-  </si>
-  <si>
-    <t>idref : Ancien élève de l'École normale de Saint-Cloud. Assistant à l'École normale supérieure (1963-1966). Enseignant à l'Université de Nice (1967-1980). Élu président de cette université (1989-1994). Premier vice-président de la Conférence des présidents d'université (1990-1992). Nommé recteur de l'Académie de Corse (1997-09-17)</t>
-  </si>
-  <si>
-    <t>letudiant : Ancien président d'Aix-Marseille 1 (2007-2011) https://www.letudiant.fr/educpros/personnalites/caverni-jean-paul-17.html</t>
-  </si>
-  <si>
-    <t>letudiant : Ancien président de l’université de Picardie Jules Verne https://www.letudiant.fr/educpros/personnalites/faure-georges-61.html</t>
-  </si>
-  <si>
-    <t>magistrat</t>
-  </si>
-  <si>
-    <t>politicien;avocat</t>
-  </si>
-  <si>
-    <t>gastro-entérologue</t>
-  </si>
-  <si>
-    <t>https://www.santementale.fr/2016/11/eloge-de-la-clinique/</t>
-  </si>
-  <si>
-    <t>littérature</t>
-  </si>
-  <si>
-    <t>physiologie</t>
-  </si>
-  <si>
-    <t>https://www.letudiant.fr/educpros/personnalites/cottier-michele.html</t>
-  </si>
-  <si>
-    <t>réanimation</t>
-  </si>
-  <si>
-    <t>https://francesoir.fr/politique-monde-opinions-tribunes/chronique-ndeg24-les-conflits-dinterets-pendant-la-crise-du-covid</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>agronomie</t>
-  </si>
-  <si>
-    <t>réanimation;pédiatrie</t>
-  </si>
-  <si>
-    <t>environnement</t>
-  </si>
-  <si>
-    <t>article du monde science et techno 15/09/2014 par pascale santi : https://renaloo.com/wp-content/uploads/2014/09/Le-Monde-17092014-YvanieCaille.pdf On peut approximer qu'elle a 28 ans en 2002 d'après l'article</t>
-  </si>
-  <si>
-    <t>https://www.handidactique.org/2016/07/rencontre-avec-noemie-nauleau/</t>
-  </si>
-  <si>
-    <t>2 personnes : président de la caf, ingénieur géologue</t>
-  </si>
-  <si>
-    <t>référent handicap;militant</t>
-  </si>
-  <si>
-    <t>psychologue;militant</t>
-  </si>
-  <si>
-    <t>ingénieur;militant</t>
-  </si>
-  <si>
-    <t>juriste;ITA</t>
-  </si>
-  <si>
-    <t>INSERM;PR</t>
-  </si>
-  <si>
-    <t>Défenseur des droits, formation de juriste</t>
-  </si>
-  <si>
-    <t>aussi cadre privé</t>
-  </si>
-  <si>
-    <t>devenu cadre privé</t>
-  </si>
-  <si>
-    <t>politicien;médecin;</t>
-  </si>
-  <si>
-    <t>militant ?</t>
-  </si>
-  <si>
-    <t>devenu haut fonctionnaire ?</t>
-  </si>
-  <si>
-    <t>mathématiques</t>
-  </si>
-  <si>
-    <t>Labrusse-Riou</t>
-  </si>
-  <si>
-    <t>Mounira Amor-Guéret</t>
-  </si>
-  <si>
-    <t>Anne Durandy-Torre</t>
-  </si>
-  <si>
-    <t>Frédérique Kuttenn</t>
-  </si>
-  <si>
-    <t>Jean-Claude Ameisen</t>
-  </si>
-  <si>
-    <t>INRAE;MinRecherche</t>
-  </si>
-  <si>
-    <t>Jean-Pierre Curtes</t>
-  </si>
-  <si>
-    <t>Philippe Lucas</t>
-  </si>
-  <si>
-    <t>Jean-Pierre Dedonder</t>
-  </si>
-  <si>
-    <t>Jean Leonardelli</t>
-  </si>
-  <si>
-    <t>Claude Burlet</t>
-  </si>
-  <si>
-    <t>Didier Truchet</t>
-  </si>
-  <si>
-    <t>Véronique Fournier</t>
-  </si>
-  <si>
-    <t>MinTravail;France Universités</t>
-  </si>
-  <si>
-    <t>Nommé par France Universités à partir de 2016</t>
-  </si>
-  <si>
-    <t>Véronique Fournier a été nommée Présidente du conseil d'orientation stratégique du Centre national des soins palliatifs et de la fin de vie par arrêté de la ministre des affaires sociales et de la santé en date du 7 avril 2016.  : https://www.ethique-hdf.fr/detail-evenement/veronique-fournier-nommee-presidente-du-centre-national-des-soins-palliatifs-et-de-la-fin-de-vie/</t>
-  </si>
-  <si>
-    <t>cardiologie;santé publique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wikipedia : Jean-Pierre Dedonder, né le 6 mai 1946, est un universitaire français, spécialiste en physique nucléaire théorique. Il dirige l'université Paris VII de 1992 à 1997 et est recteur de l'académie de Créteil de mai 1998 à juin 2000 </t>
-  </si>
-  <si>
-    <t>idref : http://www.idref.fr/026997177/id, Professeur de sociologie à l'université de Lyon II-Lumière (en 1990). Recteur de l'académie de Bordeaux puis de Caen (depuis 1993). Membre du Comité national d'éthique (de 1986 à 1994) et du Groupe de réflexion sur l'enseignement supérieur</t>
-  </si>
-  <si>
-    <t>médecine sociale;travail;toxicologie</t>
-  </si>
-  <si>
-    <t>Annick Alpérovitch</t>
-  </si>
-  <si>
-    <t>Sadek Béloucif</t>
-  </si>
-  <si>
-    <t>Anne Cambon-Thomsen</t>
+    <t>Hervé Chneiweiss</t>
   </si>
 </sst>
 </file>
@@ -2265,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="B208" sqref="B2:B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,16 +2319,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2384,7 +2387,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
         <v>37</v>
@@ -2451,7 +2454,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5">
         <v>1941</v>
@@ -2462,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -2477,7 +2480,7 @@
         <v>2016</v>
       </c>
       <c r="G6" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -2489,7 +2492,7 @@
         <v>1951</v>
       </c>
       <c r="N6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2544,13 +2547,13 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J8">
         <v>1931</v>
@@ -2576,13 +2579,13 @@
         <v>2005</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J9">
         <v>1950</v>
@@ -2608,13 +2611,13 @@
         <v>2009</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
         <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J10">
         <v>1963</v>
@@ -2640,13 +2643,13 @@
         <v>2013</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
         <v>85</v>
       </c>
       <c r="I11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J11">
         <v>1971</v>
@@ -2672,7 +2675,7 @@
         <v>2017</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -2704,13 +2707,13 @@
         <v>2022</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13">
         <v>1974</v>
@@ -2736,13 +2739,13 @@
         <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2765,7 +2768,7 @@
         <v>1996</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
         <v>85</v>
@@ -2797,7 +2800,7 @@
         <v>2005</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
         <v>85</v>
@@ -2814,7 +2817,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>609</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -2829,7 +2832,7 @@
         <v>2009</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
@@ -2841,7 +2844,7 @@
         <v>1953</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2849,7 +2852,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -2864,7 +2867,7 @@
         <v>2013</v>
       </c>
       <c r="G18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
         <v>85</v>
@@ -2878,7 +2881,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -2893,13 +2896,13 @@
         <v>2017</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19">
         <v>1949</v>
@@ -2910,7 +2913,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>80</v>
@@ -2925,7 +2928,7 @@
         <v>2024</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" t="s">
         <v>85</v>
@@ -2942,7 +2945,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
@@ -2957,13 +2960,13 @@
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21">
         <v>1975</v>
@@ -2974,7 +2977,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -2989,7 +2992,7 @@
         <v>1986</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
         <v>25</v>
@@ -3000,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -3015,7 +3018,7 @@
         <v>1990</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
         <v>25</v>
@@ -3026,7 +3029,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -3041,13 +3044,13 @@
         <v>1998</v>
       </c>
       <c r="G24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
         <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24">
         <v>1928</v>
@@ -3058,7 +3061,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3073,13 +3076,13 @@
         <v>2008</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25">
         <v>1958</v>
@@ -3090,7 +3093,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -3105,13 +3108,13 @@
         <v>2016</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J26">
         <v>1959</v>
@@ -3122,7 +3125,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3137,13 +3140,13 @@
         <v>82</v>
       </c>
       <c r="G27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" t="s">
         <v>150</v>
-      </c>
-      <c r="H27" t="s">
-        <v>263</v>
-      </c>
-      <c r="I27" t="s">
-        <v>151</v>
       </c>
       <c r="J27">
         <v>1971</v>
@@ -3154,7 +3157,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -3169,13 +3172,13 @@
         <v>1988</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28">
         <v>1921</v>
@@ -3186,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -3201,13 +3204,13 @@
         <v>1990</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
         <v>85</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J29">
         <v>1934</v>
@@ -3218,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -3233,13 +3236,13 @@
         <v>1998</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
         <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30">
         <v>1936</v>
@@ -3256,7 +3259,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3271,13 +3274,13 @@
         <v>2000</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
         <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3285,7 +3288,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -3300,13 +3303,13 @@
         <v>2016</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3314,7 +3317,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
@@ -3329,13 +3332,13 @@
         <v>82</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3343,7 +3346,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -3358,13 +3361,13 @@
         <v>2000</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J34">
         <v>1926</v>
@@ -3375,7 +3378,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>80</v>
@@ -3390,13 +3393,13 @@
         <v>2001</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35">
         <v>1934</v>
@@ -3407,7 +3410,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
@@ -3422,13 +3425,13 @@
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J36">
         <v>1943</v>
@@ -3439,7 +3442,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -3454,13 +3457,13 @@
         <v>2012</v>
       </c>
       <c r="G37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" t="s">
         <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J37">
         <v>1951</v>
@@ -3471,7 +3474,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
         <v>35</v>
@@ -3486,13 +3489,13 @@
         <v>2013</v>
       </c>
       <c r="G38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J38">
         <v>1937</v>
@@ -3503,7 +3506,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -3518,13 +3521,13 @@
         <v>2022</v>
       </c>
       <c r="G39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
         <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J39">
         <v>1964</v>
@@ -3535,7 +3538,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -3550,13 +3553,13 @@
         <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40">
         <v>1971</v>
@@ -3567,7 +3570,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -3582,13 +3585,13 @@
         <v>1987</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J41">
         <v>1926</v>
@@ -3599,7 +3602,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -3614,13 +3617,13 @@
         <v>1990</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J42">
         <v>1944</v>
@@ -3637,7 +3640,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -3652,10 +3655,10 @@
         <v>1993</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I43" t="s">
         <v>37</v>
@@ -3669,7 +3672,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>35</v>
@@ -3684,13 +3687,13 @@
         <v>1998</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J44">
         <v>1943</v>
@@ -3701,7 +3704,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -3716,13 +3719,13 @@
         <v>2002</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J45">
         <v>1953</v>
@@ -3733,7 +3736,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
@@ -3748,13 +3751,13 @@
         <v>2003</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J46">
         <v>1948</v>
@@ -3771,7 +3774,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -3786,13 +3789,13 @@
         <v>2008</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J47">
         <v>1941</v>
@@ -3803,7 +3806,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3818,13 +3821,13 @@
         <v>2022</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J48">
         <v>1961</v>
@@ -3835,7 +3838,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -3850,10 +3853,10 @@
         <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I49" t="s">
         <v>37</v>
@@ -3867,7 +3870,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
@@ -3882,13 +3885,13 @@
         <v>1996</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50">
         <v>1915</v>
@@ -3899,7 +3902,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
@@ -3914,13 +3917,13 @@
         <v>2002</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J51">
         <v>1930</v>
@@ -3931,7 +3934,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3946,10 +3949,10 @@
         <v>2005</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J52">
         <v>1948</v>
@@ -3960,7 +3963,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3975,10 +3978,10 @@
         <v>2012</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J53">
         <v>1937</v>
@@ -3989,7 +3992,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -4004,10 +4007,10 @@
         <v>2013</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J54">
         <v>1939</v>
@@ -4018,7 +4021,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
         <v>80</v>
@@ -4033,13 +4036,13 @@
         <v>2017</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J55">
         <v>1956</v>
@@ -4050,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
@@ -4065,10 +4068,10 @@
         <v>82</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J56">
         <v>1958</v>
@@ -4079,7 +4082,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
         <v>80</v>
@@ -4094,10 +4097,10 @@
         <v>2005</v>
       </c>
       <c r="G57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H57" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J57">
         <v>1930</v>
@@ -4108,7 +4111,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -4123,10 +4126,10 @@
         <v>2012</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H58" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J58">
         <v>1935</v>
@@ -4138,7 +4141,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -4153,10 +4156,10 @@
         <v>2017</v>
       </c>
       <c r="G59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H59" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J59">
         <v>1945</v>
@@ -4167,7 +4170,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
         <v>80</v>
@@ -4182,16 +4185,16 @@
         <v>2022</v>
       </c>
       <c r="G60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H60" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J60">
         <v>1955</v>
       </c>
       <c r="N60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4199,7 +4202,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -4214,10 +4217,10 @@
         <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H61" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J61">
         <v>1948</v>
@@ -4228,7 +4231,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -4243,10 +4246,10 @@
         <v>2005</v>
       </c>
       <c r="G62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H62" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J62">
         <v>1927</v>
@@ -4257,7 +4260,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -4272,10 +4275,10 @@
         <v>2012</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H63" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J63">
         <v>1933</v>
@@ -4286,7 +4289,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
         <v>80</v>
@@ -4301,10 +4304,10 @@
         <v>2016</v>
       </c>
       <c r="G64" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H64" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J64">
         <v>1950</v>
@@ -4312,7 +4315,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="N64" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4320,7 +4323,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -4335,16 +4338,16 @@
         <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H65" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J65">
         <v>1952</v>
       </c>
       <c r="N65" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4352,7 +4355,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
         <v>80</v>
@@ -4367,16 +4370,16 @@
         <v>2022</v>
       </c>
       <c r="G66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H66" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J66">
         <v>1952</v>
       </c>
       <c r="N66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4384,7 +4387,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
@@ -4399,16 +4402,16 @@
         <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H67" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J67">
         <v>1959</v>
       </c>
       <c r="N67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4416,7 +4419,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>80</v>
@@ -4434,7 +4437,7 @@
         <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J68">
         <v>1929</v>
@@ -4445,7 +4448,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
@@ -4463,10 +4466,10 @@
         <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J69">
         <v>1930</v>
@@ -4477,7 +4480,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
         <v>80</v>
@@ -4495,10 +4498,10 @@
         <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J70">
         <v>1937</v>
@@ -4509,7 +4512,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
@@ -4530,7 +4533,7 @@
         <v>25</v>
       </c>
       <c r="I71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J71">
         <v>1949</v>
@@ -4541,7 +4544,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
         <v>35</v>
@@ -4559,7 +4562,7 @@
         <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J72">
         <v>1924</v>
@@ -4570,7 +4573,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -4585,16 +4588,16 @@
         <v>2022</v>
       </c>
       <c r="G73" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H73" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J73">
         <v>1951</v>
       </c>
       <c r="N73" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -4602,7 +4605,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
         <v>80</v>
@@ -4620,13 +4623,13 @@
         <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J74">
         <v>1962</v>
       </c>
       <c r="N74" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
         <v>80</v>
@@ -4655,10 +4658,13 @@
         <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J75">
         <v>1968</v>
+      </c>
+      <c r="M75" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4666,7 +4672,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
         <v>80</v>
@@ -4681,19 +4687,19 @@
         <v>1990</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J76">
         <v>1937</v>
       </c>
       <c r="M76" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4701,7 +4707,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -4716,13 +4722,13 @@
         <v>1992</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H77" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J77">
         <v>1949</v>
@@ -4733,7 +4739,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
         <v>80</v>
@@ -4748,19 +4754,19 @@
         <v>1994</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J78">
         <v>1929</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4768,7 +4774,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -4783,16 +4789,16 @@
         <v>2008</v>
       </c>
       <c r="G79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J79">
         <v>1933</v>
       </c>
       <c r="N79" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4800,7 +4806,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
         <v>80</v>
@@ -4815,19 +4821,19 @@
         <v>2017</v>
       </c>
       <c r="G80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H80" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J80">
         <v>1953</v>
       </c>
       <c r="N80" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4835,7 +4841,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
         <v>80</v>
@@ -4850,13 +4856,13 @@
         <v>2022</v>
       </c>
       <c r="G81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J81">
         <v>1971</v>
@@ -4867,7 +4873,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -4882,19 +4888,19 @@
         <v>1985</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J82">
         <v>1943</v>
       </c>
       <c r="N82" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4902,7 +4908,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -4917,19 +4923,19 @@
         <v>1991</v>
       </c>
       <c r="G83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I83" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J83">
         <v>1928</v>
       </c>
       <c r="N83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4937,7 +4943,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
         <v>35</v>
@@ -4952,10 +4958,10 @@
         <v>2005</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J84">
         <v>1914</v>
@@ -4966,7 +4972,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
         <v>80</v>
@@ -4981,13 +4987,13 @@
         <v>2013</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H85" t="s">
         <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J85">
         <v>1956</v>
@@ -4998,7 +5004,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C86" t="s">
         <v>80</v>
@@ -5013,13 +5019,13 @@
         <v>2017</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H86" t="s">
         <v>25</v>
       </c>
       <c r="I86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5027,7 +5033,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
         <v>80</v>
@@ -5039,16 +5045,16 @@
         <v>2017</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H87" t="s">
         <v>25</v>
       </c>
       <c r="I87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5056,7 +5062,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>35</v>
@@ -5071,13 +5077,13 @@
         <v>2005</v>
       </c>
       <c r="G88" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H88" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J88">
         <v>1944</v>
@@ -5088,7 +5094,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
         <v>35</v>
@@ -5103,19 +5109,19 @@
         <v>2009</v>
       </c>
       <c r="G89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I89" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J89">
         <v>1945</v>
       </c>
       <c r="N89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5123,7 +5129,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
         <v>35</v>
@@ -5138,7 +5144,7 @@
         <v>2017</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
         <v>25</v>
@@ -5152,7 +5158,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
@@ -5167,19 +5173,19 @@
         <v>82</v>
       </c>
       <c r="G91" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J91">
         <v>1951</v>
       </c>
       <c r="N91" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5187,7 +5193,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
         <v>80</v>
@@ -5202,13 +5208,13 @@
         <v>82</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H92" t="s">
         <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J92">
         <v>1972</v>
@@ -5219,7 +5225,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -5234,13 +5240,13 @@
         <v>1988</v>
       </c>
       <c r="G93" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H93" t="s">
         <v>25</v>
       </c>
       <c r="I93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J93">
         <v>1921</v>
@@ -5252,7 +5258,7 @@
         <v>1998</v>
       </c>
       <c r="N93" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5260,7 +5266,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
@@ -5275,19 +5281,19 @@
         <v>2000</v>
       </c>
       <c r="G94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J94">
         <v>1923</v>
       </c>
       <c r="N94" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5295,7 +5301,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
         <v>35</v>
@@ -5310,10 +5316,10 @@
         <v>2005</v>
       </c>
       <c r="G95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I95" t="s">
         <v>41</v>
@@ -5327,7 +5333,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -5342,16 +5348,16 @@
         <v>2013</v>
       </c>
       <c r="G96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J96">
         <v>1935</v>
       </c>
       <c r="N96" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5359,7 +5365,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>612</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
@@ -5374,13 +5380,13 @@
         <v>2017</v>
       </c>
       <c r="G97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J97">
         <v>1957</v>
@@ -5391,7 +5397,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
@@ -5406,7 +5412,7 @@
         <v>1986</v>
       </c>
       <c r="G98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5414,7 +5420,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
         <v>80</v>
@@ -5429,16 +5435,16 @@
         <v>1990</v>
       </c>
       <c r="G99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J99">
         <v>1932</v>
       </c>
       <c r="N99" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5446,7 +5452,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
         <v>80</v>
@@ -5461,16 +5467,16 @@
         <v>1991</v>
       </c>
       <c r="G100" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J100">
         <v>1949</v>
       </c>
       <c r="N100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5478,7 +5484,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
         <v>80</v>
@@ -5493,10 +5499,10 @@
         <v>1998</v>
       </c>
       <c r="G101" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5504,7 +5510,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
         <v>80</v>
@@ -5519,10 +5525,10 @@
         <v>2008</v>
       </c>
       <c r="G102" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5530,7 +5536,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -5545,16 +5551,16 @@
         <v>2016</v>
       </c>
       <c r="G103" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J103">
         <v>1954</v>
       </c>
       <c r="N103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5562,7 +5568,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
         <v>80</v>
@@ -5577,7 +5583,7 @@
         <v>82</v>
       </c>
       <c r="G104" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
@@ -5586,7 +5592,7 @@
         <v>37</v>
       </c>
       <c r="N104" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5594,7 +5600,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" t="s">
         <v>35</v>
@@ -5609,10 +5615,10 @@
         <v>82</v>
       </c>
       <c r="G105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J105">
         <v>1948</v>
@@ -5623,7 +5629,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -5638,7 +5644,7 @@
         <v>1986</v>
       </c>
       <c r="G106" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H106" t="s">
         <v>25</v>
@@ -5652,7 +5658,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
         <v>80</v>
@@ -5667,13 +5673,13 @@
         <v>1990</v>
       </c>
       <c r="G107" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J107">
         <v>1941</v>
@@ -5684,7 +5690,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>80</v>
@@ -5699,13 +5705,13 @@
         <v>1998</v>
       </c>
       <c r="G108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H108" t="s">
         <v>27</v>
       </c>
       <c r="I108" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J108">
         <v>1938</v>
@@ -5716,7 +5722,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>35</v>
@@ -5731,19 +5737,19 @@
         <v>2001</v>
       </c>
       <c r="G109" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H109" t="s">
         <v>27</v>
       </c>
       <c r="I109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J109">
         <v>1951</v>
       </c>
       <c r="N109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5751,7 +5757,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
         <v>80</v>
@@ -5766,13 +5772,13 @@
         <v>2008</v>
       </c>
       <c r="G110" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
       </c>
       <c r="I110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J110">
         <v>1954</v>
@@ -5784,7 +5790,7 @@
         <v>82</v>
       </c>
       <c r="N110" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5792,7 +5798,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>35</v>
@@ -5807,13 +5813,13 @@
         <v>2016</v>
       </c>
       <c r="G111" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H111" t="s">
         <v>27</v>
       </c>
       <c r="I111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J111">
         <v>1952</v>
@@ -5824,7 +5830,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
         <v>80</v>
@@ -5839,10 +5845,10 @@
         <v>2021</v>
       </c>
       <c r="G112" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H112" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J112">
         <v>1961</v>
@@ -5853,7 +5859,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
@@ -5868,13 +5874,13 @@
         <v>82</v>
       </c>
       <c r="G113" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I113" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J113">
         <v>1950</v>
@@ -5885,7 +5891,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -5900,19 +5906,19 @@
         <v>1998</v>
       </c>
       <c r="G114" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H114" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J114">
         <v>1907</v>
       </c>
       <c r="N114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5920,7 +5926,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C115" t="s">
         <v>80</v>
@@ -5935,13 +5941,13 @@
         <v>2003</v>
       </c>
       <c r="G115" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H115" t="s">
         <v>27</v>
       </c>
       <c r="I115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J115">
         <v>1933</v>
@@ -5953,7 +5959,7 @@
         <v>2012</v>
       </c>
       <c r="M115" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -5961,7 +5967,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -5976,13 +5982,13 @@
         <v>2012</v>
       </c>
       <c r="G116" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H116" t="s">
         <v>27</v>
       </c>
       <c r="I116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J116">
         <v>1964</v>
@@ -5993,7 +5999,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
@@ -6008,19 +6014,19 @@
         <v>82</v>
       </c>
       <c r="G117" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
       </c>
       <c r="I117" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J117">
         <v>1958</v>
       </c>
       <c r="N117" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6028,7 +6034,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
         <v>80</v>
@@ -6043,13 +6049,13 @@
         <v>2021</v>
       </c>
       <c r="G118" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H118" t="s">
         <v>27</v>
       </c>
       <c r="I118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J118">
         <v>1955</v>
@@ -6060,7 +6066,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C119" t="s">
         <v>35</v>
@@ -6075,13 +6081,13 @@
         <v>2022</v>
       </c>
       <c r="G119" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H119" t="s">
         <v>27</v>
       </c>
       <c r="I119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J119">
         <v>1952</v>
@@ -6092,7 +6098,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C120" t="s">
         <v>80</v>
@@ -6107,19 +6113,19 @@
         <v>82</v>
       </c>
       <c r="G120" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H120" t="s">
         <v>27</v>
       </c>
       <c r="I120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J120">
         <v>1974</v>
       </c>
       <c r="N120" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6127,7 +6133,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
         <v>80</v>
@@ -6142,13 +6148,13 @@
         <v>1992</v>
       </c>
       <c r="G121" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H121" t="s">
         <v>25</v>
       </c>
       <c r="I121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6156,7 +6162,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
         <v>80</v>
@@ -6171,13 +6177,13 @@
         <v>1998</v>
       </c>
       <c r="G122" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H122" t="s">
         <v>25</v>
       </c>
       <c r="I122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6185,7 +6191,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C123" t="s">
         <v>35</v>
@@ -6200,19 +6206,19 @@
         <v>2005</v>
       </c>
       <c r="G123" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I123" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J123">
         <v>1912</v>
       </c>
       <c r="N123" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6235,13 +6241,13 @@
         <v>2008</v>
       </c>
       <c r="G124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H124" t="s">
         <v>25</v>
       </c>
       <c r="I124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J124">
         <v>1941</v>
@@ -6252,7 +6258,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C125" t="s">
         <v>80</v>
@@ -6267,10 +6273,10 @@
         <v>2017</v>
       </c>
       <c r="G125" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H125" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6293,7 +6299,7 @@
         <v>2022</v>
       </c>
       <c r="G126" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
@@ -6310,7 +6316,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
         <v>80</v>
@@ -6325,16 +6331,16 @@
         <v>82</v>
       </c>
       <c r="G127" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J127">
         <v>1981</v>
       </c>
       <c r="N127" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6342,7 +6348,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
@@ -6357,16 +6363,16 @@
         <v>1988</v>
       </c>
       <c r="G128" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J128">
         <v>1938</v>
       </c>
       <c r="N128" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6374,7 +6380,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C129" t="s">
         <v>35</v>
@@ -6389,19 +6395,19 @@
         <v>1992</v>
       </c>
       <c r="G129" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J129">
         <v>1923</v>
       </c>
       <c r="N129" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6409,7 +6415,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C130" t="s">
         <v>80</v>
@@ -6424,13 +6430,13 @@
         <v>1996</v>
       </c>
       <c r="G130" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N130" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6438,7 +6444,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -6453,13 +6459,13 @@
         <v>2005</v>
       </c>
       <c r="G131" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H131" t="s">
         <v>25</v>
       </c>
       <c r="I131" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6467,7 +6473,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -6482,13 +6488,13 @@
         <v>2009</v>
       </c>
       <c r="G132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H132" t="s">
         <v>25</v>
       </c>
       <c r="I132" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6496,7 +6502,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C133" t="s">
         <v>35</v>
@@ -6511,19 +6517,19 @@
         <v>2013</v>
       </c>
       <c r="G133" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H133" t="s">
         <v>25</v>
       </c>
       <c r="I133" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J133">
         <v>1939</v>
       </c>
       <c r="N133" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6531,7 +6537,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C134" t="s">
         <v>80</v>
@@ -6546,16 +6552,16 @@
         <v>2022</v>
       </c>
       <c r="G134" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H134" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J134">
         <v>1957</v>
       </c>
       <c r="N134" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6563,7 +6569,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C135" t="s">
         <v>80</v>
@@ -6578,13 +6584,13 @@
         <v>82</v>
       </c>
       <c r="G135" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H135" t="s">
         <v>25</v>
       </c>
       <c r="I135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6592,7 +6598,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -6607,13 +6613,13 @@
         <v>1988</v>
       </c>
       <c r="G136" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H136" t="s">
         <v>25</v>
       </c>
       <c r="I136" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J136">
         <v>1923</v>
@@ -6624,7 +6630,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C137" t="s">
         <v>35</v>
@@ -6639,7 +6645,7 @@
         <v>1992</v>
       </c>
       <c r="G137" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H137" t="s">
         <v>25</v>
@@ -6653,7 +6659,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C138" t="s">
         <v>35</v>
@@ -6668,13 +6674,13 @@
         <v>1996</v>
       </c>
       <c r="G138" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H138" t="s">
         <v>25</v>
       </c>
       <c r="I138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J138">
         <v>1933</v>
@@ -6685,7 +6691,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s">
         <v>80</v>
@@ -6700,19 +6706,19 @@
         <v>2000</v>
       </c>
       <c r="G139" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H139" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J139">
         <v>1919</v>
       </c>
       <c r="N139" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -6720,7 +6726,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C140" t="s">
         <v>80</v>
@@ -6735,10 +6741,10 @@
         <v>2009</v>
       </c>
       <c r="G140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -6746,7 +6752,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C141" t="s">
         <v>80</v>
@@ -6761,10 +6767,10 @@
         <v>2013</v>
       </c>
       <c r="G141" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H141" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -6772,7 +6778,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C142" t="s">
         <v>35</v>
@@ -6787,13 +6793,13 @@
         <v>2022</v>
       </c>
       <c r="G142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H142" t="s">
         <v>25</v>
       </c>
       <c r="I142" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J142">
         <v>1952</v>
@@ -6804,7 +6810,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
         <v>80</v>
@@ -6819,13 +6825,13 @@
         <v>82</v>
       </c>
       <c r="G143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H143" t="s">
         <v>25</v>
       </c>
       <c r="I143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -6833,7 +6839,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C144" t="s">
         <v>80</v>
@@ -6848,13 +6854,13 @@
         <v>2000</v>
       </c>
       <c r="G144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H144" t="s">
         <v>25</v>
       </c>
       <c r="I144" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J144">
         <v>1933</v>
@@ -6865,7 +6871,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C145" t="s">
         <v>80</v>
@@ -6880,19 +6886,19 @@
         <v>2003</v>
       </c>
       <c r="G145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H145" t="s">
         <v>25</v>
       </c>
       <c r="I145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J145">
         <v>1943</v>
       </c>
       <c r="N145" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,7 +6906,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C146" t="s">
         <v>80</v>
@@ -6915,13 +6921,13 @@
         <v>2009</v>
       </c>
       <c r="G146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H146" t="s">
         <v>25</v>
       </c>
       <c r="I146" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J146">
         <v>1946</v>
@@ -6932,7 +6938,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C147" t="s">
         <v>80</v>
@@ -6947,19 +6953,19 @@
         <v>2013</v>
       </c>
       <c r="G147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H147" t="s">
         <v>25</v>
       </c>
       <c r="I147" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J147">
         <v>1953</v>
       </c>
       <c r="N147" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -6982,13 +6988,13 @@
         <v>2017</v>
       </c>
       <c r="G148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H148" t="s">
         <v>27</v>
       </c>
       <c r="I148" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J148">
         <v>1974</v>
@@ -6999,7 +7005,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -7014,16 +7020,16 @@
         <v>82</v>
       </c>
       <c r="G149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H149" t="s">
         <v>25</v>
       </c>
       <c r="I149" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N149" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -7031,7 +7037,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -7046,13 +7052,13 @@
         <v>1986</v>
       </c>
       <c r="G150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H150" t="s">
         <v>25</v>
       </c>
       <c r="I150" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J150">
         <v>1914</v>
@@ -7063,7 +7069,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -7078,19 +7084,19 @@
         <v>1990</v>
       </c>
       <c r="G151" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H151" t="s">
         <v>25</v>
       </c>
       <c r="I151" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J151">
         <v>1943</v>
       </c>
       <c r="N151" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -7098,7 +7104,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C152" t="s">
         <v>35</v>
@@ -7113,13 +7119,13 @@
         <v>1993</v>
       </c>
       <c r="G152" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I152" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J152">
         <v>1923</v>
@@ -7130,7 +7136,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C153" t="s">
         <v>35</v>
@@ -7145,10 +7151,10 @@
         <v>1998</v>
       </c>
       <c r="G153" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H153" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J153">
         <v>1940</v>
@@ -7159,7 +7165,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C154" t="s">
         <v>35</v>
@@ -7174,10 +7180,10 @@
         <v>2003</v>
       </c>
       <c r="G154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J154">
         <v>1920</v>
@@ -7188,7 +7194,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C155" t="s">
         <v>35</v>
@@ -7203,10 +7209,10 @@
         <v>2012</v>
       </c>
       <c r="G155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J155">
         <v>1942</v>
@@ -7217,7 +7223,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
         <v>35</v>
@@ -7232,19 +7238,19 @@
         <v>2021</v>
       </c>
       <c r="G156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H156" t="s">
         <v>27</v>
       </c>
       <c r="I156" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J156">
         <v>1949</v>
       </c>
       <c r="N156" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -7252,7 +7258,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C157" t="s">
         <v>80</v>
@@ -7267,13 +7273,13 @@
         <v>82</v>
       </c>
       <c r="G157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H157" t="s">
         <v>27</v>
       </c>
       <c r="I157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J157">
         <v>1971</v>
@@ -7284,7 +7290,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
         <v>35</v>
@@ -7299,13 +7305,13 @@
         <v>1988</v>
       </c>
       <c r="G158" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J158">
         <v>1925</v>
@@ -7316,7 +7322,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C159" t="s">
         <v>35</v>
@@ -7331,13 +7337,13 @@
         <v>1994</v>
       </c>
       <c r="G159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H159" t="s">
         <v>25</v>
       </c>
       <c r="I159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J159">
         <v>1917</v>
@@ -7348,7 +7354,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C160" t="s">
         <v>35</v>
@@ -7363,19 +7369,19 @@
         <v>2003</v>
       </c>
       <c r="G160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H160" t="s">
         <v>25</v>
       </c>
       <c r="I160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J160">
         <v>1931</v>
       </c>
       <c r="N160" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7383,7 +7389,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C161" t="s">
         <v>80</v>
@@ -7398,16 +7404,16 @@
         <v>2012</v>
       </c>
       <c r="G161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H161" t="s">
+        <v>361</v>
+      </c>
+      <c r="I161" t="s">
+        <v>362</v>
+      </c>
+      <c r="N161" t="s">
         <v>363</v>
-      </c>
-      <c r="I161" t="s">
-        <v>364</v>
-      </c>
-      <c r="N161" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7415,7 +7421,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C162" t="s">
         <v>80</v>
@@ -7430,19 +7436,19 @@
         <v>2021</v>
       </c>
       <c r="G162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H162" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I162" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J162">
         <v>1946</v>
       </c>
       <c r="N162" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7450,7 +7456,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C163" t="s">
         <v>35</v>
@@ -7465,13 +7471,13 @@
         <v>82</v>
       </c>
       <c r="G163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H163" t="s">
         <v>27</v>
       </c>
       <c r="I163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J163">
         <v>1974</v>
@@ -7482,7 +7488,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C164" t="s">
         <v>80</v>
@@ -7497,7 +7503,7 @@
         <v>1990</v>
       </c>
       <c r="G164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H164" t="s">
         <v>25</v>
@@ -7506,7 +7512,7 @@
         <v>1941</v>
       </c>
       <c r="N164" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -7514,7 +7520,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C165" t="s">
         <v>80</v>
@@ -7529,19 +7535,19 @@
         <v>1994</v>
       </c>
       <c r="G165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H165" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I165" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J165">
         <v>1920</v>
       </c>
       <c r="N165" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -7549,7 +7555,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
         <v>80</v>
@@ -7564,13 +7570,13 @@
         <v>1998</v>
       </c>
       <c r="G166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H166" t="s">
         <v>25</v>
       </c>
       <c r="I166" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J166">
         <v>1939</v>
@@ -7581,7 +7587,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C167" t="s">
         <v>80</v>
@@ -7596,19 +7602,19 @@
         <v>2008</v>
       </c>
       <c r="G167" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J167">
         <v>1967</v>
       </c>
       <c r="N167" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -7616,7 +7622,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C168" t="s">
         <v>80</v>
@@ -7631,16 +7637,16 @@
         <v>2016</v>
       </c>
       <c r="G168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H168" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J168">
         <v>1973</v>
       </c>
       <c r="N168" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7648,7 +7654,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C169" t="s">
         <v>35</v>
@@ -7663,16 +7669,16 @@
         <v>2021</v>
       </c>
       <c r="G169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H169" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J169">
         <v>1950</v>
       </c>
       <c r="N169" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -7680,7 +7686,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C170" t="s">
         <v>35</v>
@@ -7704,7 +7710,7 @@
         <v>1916</v>
       </c>
       <c r="N170" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -7712,7 +7718,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C171" t="s">
         <v>35</v>
@@ -7733,13 +7739,13 @@
         <v>25</v>
       </c>
       <c r="I171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J171">
         <v>1920</v>
       </c>
       <c r="N171" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -7747,7 +7753,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -7776,7 +7782,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C173" t="s">
         <v>35</v>
@@ -7794,7 +7800,7 @@
         <v>49</v>
       </c>
       <c r="H173" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I173" t="s">
         <v>37</v>
@@ -7803,7 +7809,7 @@
         <v>1923</v>
       </c>
       <c r="N173" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -7811,7 +7817,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -7829,13 +7835,13 @@
         <v>49</v>
       </c>
       <c r="H174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J174">
         <v>1932</v>
       </c>
       <c r="N174" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -7843,7 +7849,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C175" t="s">
         <v>35</v>
@@ -7864,7 +7870,7 @@
         <v>27</v>
       </c>
       <c r="I175" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="J175">
         <v>1941</v>
@@ -7875,7 +7881,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C176" t="s">
         <v>35</v>
@@ -7896,7 +7902,7 @@
         <v>27</v>
       </c>
       <c r="I176" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="J176">
         <v>1926</v>
@@ -7907,7 +7913,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -7934,7 +7940,7 @@
         <v>1940</v>
       </c>
       <c r="N177" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -7942,7 +7948,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -7957,19 +7963,19 @@
         <v>1992</v>
       </c>
       <c r="G178" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H178" t="s">
         <v>25</v>
       </c>
       <c r="I178" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J178">
         <v>1914</v>
       </c>
       <c r="N178" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -7977,7 +7983,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -7992,7 +7998,7 @@
         <v>1996</v>
       </c>
       <c r="G179" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H179" t="s">
         <v>25</v>
@@ -8001,7 +8007,7 @@
         <v>1917</v>
       </c>
       <c r="N179" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -8009,7 +8015,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C180" t="s">
         <v>35</v>
@@ -8024,13 +8030,13 @@
         <v>2005</v>
       </c>
       <c r="G180" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H180" t="s">
         <v>25</v>
       </c>
       <c r="I180" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J180">
         <v>1924</v>
@@ -8041,7 +8047,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -8056,7 +8062,7 @@
         <v>2013</v>
       </c>
       <c r="G181" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H181" t="s">
         <v>25</v>
@@ -8070,7 +8076,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C182" t="s">
         <v>35</v>
@@ -8085,13 +8091,13 @@
         <v>2017</v>
       </c>
       <c r="G182" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H182" t="s">
         <v>25</v>
       </c>
       <c r="I182" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J182">
         <v>1942</v>
@@ -8102,7 +8108,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C183" t="s">
         <v>35</v>
@@ -8117,10 +8123,10 @@
         <v>82</v>
       </c>
       <c r="G183" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H183" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J183">
         <v>1952</v>
@@ -8131,7 +8137,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C184" t="s">
         <v>35</v>
@@ -8149,16 +8155,16 @@
         <v>46</v>
       </c>
       <c r="H184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I184" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J184">
         <v>1916</v>
       </c>
       <c r="N184" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -8166,7 +8172,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -8184,7 +8190,7 @@
         <v>46</v>
       </c>
       <c r="H185" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I185" t="s">
         <v>37</v>
@@ -8193,7 +8199,7 @@
         <v>1920</v>
       </c>
       <c r="N185" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -8201,7 +8207,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -8222,7 +8228,7 @@
         <v>27</v>
       </c>
       <c r="I186" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J186">
         <v>1940</v>
@@ -8233,7 +8239,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C187" t="s">
         <v>80</v>
@@ -8254,13 +8260,13 @@
         <v>27</v>
       </c>
       <c r="I187" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J187">
         <v>1941</v>
       </c>
       <c r="N187" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -8268,7 +8274,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C188" t="s">
         <v>80</v>
@@ -8289,7 +8295,7 @@
         <v>27</v>
       </c>
       <c r="I188" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J188">
         <v>1952</v>
@@ -8300,7 +8306,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -8318,7 +8324,7 @@
         <v>46</v>
       </c>
       <c r="H189" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I189" t="s">
         <v>37</v>
@@ -8332,7 +8338,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -8350,10 +8356,10 @@
         <v>46</v>
       </c>
       <c r="H190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J190">
         <v>1970</v>
@@ -8364,7 +8370,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C191" t="s">
         <v>80</v>
@@ -8382,10 +8388,10 @@
         <v>48</v>
       </c>
       <c r="H191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I191" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J191">
         <v>1917</v>
@@ -8396,7 +8402,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C192" t="s">
         <v>80</v>
@@ -8414,10 +8420,10 @@
         <v>48</v>
       </c>
       <c r="H192" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I192" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J192">
         <v>1920</v>
@@ -8428,7 +8434,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -8446,16 +8452,16 @@
         <v>48</v>
       </c>
       <c r="H193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I193" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="J193">
         <v>1925</v>
       </c>
       <c r="N193" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -8463,7 +8469,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -8481,10 +8487,10 @@
         <v>48</v>
       </c>
       <c r="H194" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I194" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="J194">
         <v>1936</v>
@@ -8495,7 +8501,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C195" t="s">
         <v>80</v>
@@ -8513,16 +8519,16 @@
         <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I195" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J195">
         <v>1948</v>
       </c>
       <c r="N195" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -8530,7 +8536,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C196" t="s">
         <v>80</v>
@@ -8545,13 +8551,13 @@
         <v>2016</v>
       </c>
       <c r="G196" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I196" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J196">
         <v>1945</v>
@@ -8568,7 +8574,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C197" t="s">
         <v>35</v>
@@ -8586,16 +8592,16 @@
         <v>48</v>
       </c>
       <c r="H197" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J197">
         <v>1965</v>
       </c>
       <c r="N197" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -8603,7 +8609,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C198" t="s">
         <v>80</v>
@@ -8627,10 +8633,10 @@
         <v>1939</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="N198" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -8638,7 +8644,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C199" t="s">
         <v>80</v>
@@ -8656,10 +8662,10 @@
         <v>34</v>
       </c>
       <c r="H199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N199" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -8667,7 +8673,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C200" t="s">
         <v>80</v>
@@ -8685,7 +8691,7 @@
         <v>34</v>
       </c>
       <c r="H200" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J200">
         <v>1934</v>
@@ -8696,7 +8702,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C201" t="s">
         <v>80</v>
@@ -8734,7 +8740,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C202" t="s">
         <v>80</v>
@@ -8758,7 +8764,7 @@
         <v>1948</v>
       </c>
       <c r="M202" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -8766,7 +8772,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C203" t="s">
         <v>35</v>
@@ -8787,7 +8793,7 @@
         <v>25</v>
       </c>
       <c r="I203" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="J203">
         <v>1949</v>
@@ -8798,7 +8804,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C204" t="s">
         <v>80</v>
@@ -8819,7 +8825,7 @@
         <v>27</v>
       </c>
       <c r="I204" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J204">
         <v>1932</v>
@@ -8830,7 +8836,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C205" t="s">
         <v>80</v>
@@ -8851,7 +8857,7 @@
         <v>25</v>
       </c>
       <c r="I205" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J205">
         <v>1923</v>
@@ -8862,7 +8868,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C206" t="s">
         <v>80</v>
@@ -8883,13 +8889,13 @@
         <v>27</v>
       </c>
       <c r="I206" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M206" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N206" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -8897,7 +8903,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C207" t="s">
         <v>80</v>
@@ -8918,7 +8924,7 @@
         <v>25</v>
       </c>
       <c r="I207" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J207">
         <v>1932</v>
@@ -8929,7 +8935,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C208" t="s">
         <v>80</v>
@@ -8958,7 +8964,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C209" t="s">
         <v>35</v>
@@ -8990,7 +8996,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C210" t="s">
         <v>80</v>
@@ -9008,10 +9014,10 @@
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I210" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K210">
         <v>1992</v>
@@ -9025,7 +9031,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C211" t="s">
         <v>80</v>
@@ -9048,7 +9054,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C212" t="s">
         <v>80</v>
@@ -9066,7 +9072,7 @@
         <v>34</v>
       </c>
       <c r="N212" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -9074,7 +9080,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C213" t="s">
         <v>80</v>
@@ -9092,7 +9098,7 @@
         <v>34</v>
       </c>
       <c r="H213" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -9100,7 +9106,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C214" t="s">
         <v>80</v>
@@ -9124,7 +9130,7 @@
         <v>1977</v>
       </c>
       <c r="N214" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -9132,7 +9138,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -9150,10 +9156,10 @@
         <v>34</v>
       </c>
       <c r="H215" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I215" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J215">
         <v>1959</v>
@@ -9164,7 +9170,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C216" t="s">
         <v>80</v>
@@ -9187,7 +9193,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -9208,7 +9214,7 @@
         <v>25</v>
       </c>
       <c r="I217" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J217">
         <v>1944</v>
@@ -9219,7 +9225,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C218" t="s">
         <v>35</v>
@@ -9242,7 +9248,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C219" t="s">
         <v>80</v>
@@ -9265,7 +9271,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C220" t="s">
         <v>80</v>
@@ -9283,10 +9289,10 @@
         <v>34</v>
       </c>
       <c r="H220" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N220" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
@@ -9294,7 +9300,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C221" t="s">
         <v>80</v>
@@ -9317,7 +9323,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>610</v>
       </c>
       <c r="C222" t="s">
         <v>35</v>
@@ -9338,7 +9344,7 @@
         <v>25</v>
       </c>
       <c r="I222" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J222">
         <v>1946</v>
@@ -9349,7 +9355,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C223" t="s">
         <v>80</v>
@@ -9370,7 +9376,7 @@
         <v>27</v>
       </c>
       <c r="I223" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -9378,7 +9384,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C224" t="s">
         <v>80</v>
@@ -9399,7 +9405,7 @@
         <v>25</v>
       </c>
       <c r="I224" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J224">
         <v>1941</v>
@@ -9410,7 +9416,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -9431,7 +9437,7 @@
         <v>25</v>
       </c>
       <c r="I225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -9439,7 +9445,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -9460,7 +9466,7 @@
         <v>25</v>
       </c>
       <c r="I226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J226">
         <v>1925</v>
@@ -9471,7 +9477,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -9500,7 +9506,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -9521,13 +9527,13 @@
         <v>25</v>
       </c>
       <c r="I228" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="J228">
         <v>1949</v>
       </c>
       <c r="N228" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -9535,7 +9541,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C229" t="s">
         <v>35</v>
@@ -9564,7 +9570,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C230" t="s">
         <v>80</v>
@@ -9585,7 +9591,7 @@
         <v>25</v>
       </c>
       <c r="I230" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -9593,7 +9599,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C231" t="s">
         <v>35</v>
@@ -9611,16 +9617,16 @@
         <v>34</v>
       </c>
       <c r="H231" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I231" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J231">
         <v>1917</v>
       </c>
       <c r="N231" s="5" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -9628,7 +9634,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C232" t="s">
         <v>35</v>
@@ -9646,13 +9652,13 @@
         <v>34</v>
       </c>
       <c r="H232" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I232" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -9660,7 +9666,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C233" t="s">
         <v>35</v>
@@ -9692,7 +9698,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C234" t="s">
         <v>35</v>
@@ -9713,7 +9719,7 @@
         <v>25</v>
       </c>
       <c r="I234" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="J234">
         <v>1938</v>
@@ -9724,7 +9730,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C235" t="s">
         <v>35</v>
@@ -9742,13 +9748,13 @@
         <v>34</v>
       </c>
       <c r="H235" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I235" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N235" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -9756,7 +9762,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -9777,7 +9783,7 @@
         <v>27</v>
       </c>
       <c r="I236" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="J236">
         <v>1921</v>
@@ -9788,7 +9794,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -9809,13 +9815,13 @@
         <v>25</v>
       </c>
       <c r="I237" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J237">
         <v>1929</v>
       </c>
       <c r="N237" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -9823,7 +9829,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C238" t="s">
         <v>80</v>
@@ -9844,7 +9850,7 @@
         <v>27</v>
       </c>
       <c r="I238" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J238">
         <v>1937</v>
@@ -9855,7 +9861,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -9876,7 +9882,7 @@
         <v>27</v>
       </c>
       <c r="I239" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J239">
         <v>1940</v>
@@ -9887,7 +9893,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -9908,7 +9914,7 @@
         <v>27</v>
       </c>
       <c r="I240" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="J240">
         <v>1947</v>
@@ -9919,7 +9925,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C241" t="s">
         <v>35</v>
@@ -9937,10 +9943,10 @@
         <v>33</v>
       </c>
       <c r="H241" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I241" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J241">
         <v>1949</v>
@@ -9951,7 +9957,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C242" t="s">
         <v>80</v>
@@ -9972,7 +9978,7 @@
         <v>27</v>
       </c>
       <c r="I242" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J242">
         <v>1948</v>
@@ -9983,7 +9989,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C243" t="s">
         <v>35</v>
@@ -10004,7 +10010,7 @@
         <v>27</v>
       </c>
       <c r="I243" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J243">
         <v>1950</v>
@@ -10015,7 +10021,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
@@ -10036,7 +10042,7 @@
         <v>27</v>
       </c>
       <c r="I244" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J244">
         <v>1970</v>
@@ -10047,7 +10053,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C245" t="s">
         <v>35</v>
@@ -10071,7 +10077,7 @@
         <v>1922</v>
       </c>
       <c r="N245" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -10079,7 +10085,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C246" t="s">
         <v>35</v>
@@ -10103,7 +10109,7 @@
         <v>1927</v>
       </c>
       <c r="N246" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -10111,7 +10117,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -10132,7 +10138,7 @@
         <v>27</v>
       </c>
       <c r="I247" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -10140,7 +10146,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C248" t="s">
         <v>35</v>
@@ -10158,7 +10164,7 @@
         <v>33</v>
       </c>
       <c r="H248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J248">
         <v>1943</v>
@@ -10169,7 +10175,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C249" t="s">
         <v>35</v>
@@ -10187,10 +10193,10 @@
         <v>33</v>
       </c>
       <c r="H249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I249" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J249">
         <v>1951</v>
@@ -10201,7 +10207,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C250" t="s">
         <v>80</v>
@@ -10219,13 +10225,13 @@
         <v>33</v>
       </c>
       <c r="H250" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I250" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="N250" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -10233,7 +10239,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -10248,22 +10254,22 @@
         <v>1990</v>
       </c>
       <c r="G251" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H251" t="s">
         <v>25</v>
       </c>
       <c r="I251" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="J251">
         <v>1921</v>
       </c>
       <c r="M251" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="N251" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -10271,7 +10277,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C252" t="s">
         <v>35</v>
@@ -10286,19 +10292,19 @@
         <v>1992</v>
       </c>
       <c r="G252" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H252" t="s">
         <v>27</v>
       </c>
       <c r="I252" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J252">
         <v>1942</v>
       </c>
       <c r="N252" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -10306,7 +10312,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C253" t="s">
         <v>35</v>
@@ -10321,19 +10327,19 @@
         <v>1994</v>
       </c>
       <c r="G253" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H253" t="s">
         <v>27</v>
       </c>
       <c r="I253" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J253">
         <v>1930</v>
       </c>
       <c r="N253" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -10341,7 +10347,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C254" t="s">
         <v>35</v>
@@ -10356,19 +10362,19 @@
         <v>2000</v>
       </c>
       <c r="G254" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H254" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I254" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="J254">
         <v>1939</v>
       </c>
       <c r="N254" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -10376,7 +10382,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C255" t="s">
         <v>35</v>
@@ -10391,19 +10397,19 @@
         <v>2008</v>
       </c>
       <c r="G255" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H255" t="s">
         <v>27</v>
       </c>
       <c r="I255" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="J255">
         <v>1947</v>
       </c>
       <c r="N255" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -10411,7 +10417,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C256" t="s">
         <v>35</v>
@@ -10426,19 +10432,19 @@
         <v>2009</v>
       </c>
       <c r="G256" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H256" t="s">
         <v>27</v>
       </c>
       <c r="I256" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J256">
         <v>1960</v>
       </c>
       <c r="N256" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -10446,7 +10452,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C257" t="s">
         <v>35</v>
@@ -10461,19 +10467,19 @@
         <v>2013</v>
       </c>
       <c r="G257" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
       </c>
       <c r="I257" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="J257">
         <v>1941</v>
       </c>
       <c r="N257" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -10481,7 +10487,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -10496,13 +10502,13 @@
         <v>2017</v>
       </c>
       <c r="G258" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H258" t="s">
         <v>27</v>
       </c>
       <c r="I258" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J258">
         <v>1961</v>
@@ -10513,7 +10519,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C259" t="s">
         <v>80</v>
@@ -10528,13 +10534,13 @@
         <v>2019</v>
       </c>
       <c r="G259" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H259" t="s">
         <v>27</v>
       </c>
       <c r="I259" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="J259">
         <v>1957</v>
@@ -10545,7 +10551,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C260" t="s">
         <v>80</v>
@@ -10560,13 +10566,13 @@
         <v>2021</v>
       </c>
       <c r="G260" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H260" t="s">
         <v>27</v>
       </c>
       <c r="I260" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -10574,7 +10580,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C261" t="s">
         <v>80</v>
@@ -10589,7 +10595,7 @@
         <v>2022</v>
       </c>
       <c r="G261" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H261" t="s">
         <v>25</v>
@@ -10598,7 +10604,7 @@
         <v>1957</v>
       </c>
       <c r="N261" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -10606,7 +10612,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>465</v>
+        <v>607</v>
       </c>
       <c r="C262" t="s">
         <v>35</v>
@@ -10621,16 +10627,16 @@
         <v>82</v>
       </c>
       <c r="G262" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H262" t="s">
         <v>25</v>
       </c>
       <c r="I262" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="N262" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
@@ -10638,7 +10644,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C263" t="s">
         <v>35</v>
@@ -10653,13 +10659,13 @@
         <v>1986</v>
       </c>
       <c r="G263" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H263" t="s">
         <v>25</v>
       </c>
       <c r="I263" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J263">
         <v>1938</v>
@@ -10670,7 +10676,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C264" t="s">
         <v>35</v>
@@ -10685,19 +10691,19 @@
         <v>1994</v>
       </c>
       <c r="G264" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H264" t="s">
         <v>27</v>
       </c>
       <c r="I264" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J264">
         <v>1940</v>
       </c>
       <c r="N264" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
@@ -10705,7 +10711,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C265" t="s">
         <v>35</v>
@@ -10720,19 +10726,19 @@
         <v>1998</v>
       </c>
       <c r="G265" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H265" t="s">
         <v>27</v>
       </c>
       <c r="I265" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J265">
         <v>1946</v>
       </c>
       <c r="N265" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
@@ -10740,7 +10746,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C266" t="s">
         <v>35</v>
@@ -10755,13 +10761,13 @@
         <v>2003</v>
       </c>
       <c r="G266" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H266" t="s">
         <v>25</v>
       </c>
       <c r="I266" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J266">
         <v>1938</v>
@@ -10772,7 +10778,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C267" t="s">
         <v>35</v>
@@ -10787,7 +10793,7 @@
         <v>2012</v>
       </c>
       <c r="G267" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H267" t="s">
         <v>25</v>
@@ -10801,7 +10807,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C268" t="s">
         <v>35</v>
@@ -10816,13 +10822,13 @@
         <v>2015</v>
       </c>
       <c r="G268" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H268" t="s">
         <v>27</v>
       </c>
       <c r="I268" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J268">
         <v>1948</v>
@@ -10833,7 +10839,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C269" t="s">
         <v>80</v>
@@ -10848,19 +10854,19 @@
         <v>2016</v>
       </c>
       <c r="G269" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H269" t="s">
         <v>25</v>
       </c>
       <c r="I269" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="J269">
         <v>1954</v>
       </c>
       <c r="N269" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
@@ -10868,7 +10874,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -10889,7 +10895,7 @@
         <v>27</v>
       </c>
       <c r="I270" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="J270">
         <v>1948</v>
@@ -10900,7 +10906,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C271" t="s">
         <v>35</v>
@@ -10918,10 +10924,10 @@
         <v>62</v>
       </c>
       <c r="H271" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I271" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J271">
         <v>1940</v>
@@ -10932,7 +10938,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C272" t="s">
         <v>35</v>
@@ -10950,10 +10956,10 @@
         <v>62</v>
       </c>
       <c r="H272" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I272" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J272">
         <v>1949</v>
@@ -10964,7 +10970,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C273" t="s">
         <v>35</v>
@@ -10982,10 +10988,10 @@
         <v>62</v>
       </c>
       <c r="H273" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I273" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J273">
         <v>1944</v>
@@ -10996,7 +11002,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -11014,10 +11020,10 @@
         <v>62</v>
       </c>
       <c r="H274" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I274" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
@@ -11025,7 +11031,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C275" t="s">
         <v>35</v>
@@ -11046,7 +11052,7 @@
         <v>25</v>
       </c>
       <c r="I275" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J275">
         <v>1979</v>
@@ -11057,7 +11063,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C276" t="s">
         <v>35</v>
@@ -11075,10 +11081,10 @@
         <v>62</v>
       </c>
       <c r="H276" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I276" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
@@ -11086,7 +11092,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C277" t="s">
         <v>35</v>
@@ -11104,10 +11110,10 @@
         <v>62</v>
       </c>
       <c r="H277" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I277" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J277">
         <v>1948</v>
@@ -11118,7 +11124,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C278" t="s">
         <v>35</v>
@@ -11133,13 +11139,13 @@
         <v>82</v>
       </c>
       <c r="G278" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H278" t="s">
         <v>27</v>
       </c>
       <c r="I278" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J278">
         <v>1955</v>
@@ -11150,7 +11156,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C279" t="s">
         <v>80</v>
@@ -11165,16 +11171,16 @@
         <v>82</v>
       </c>
       <c r="G279" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J279">
         <v>1974</v>
       </c>
       <c r="N279" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -11182,7 +11188,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C280" t="s">
         <v>80</v>
@@ -11200,13 +11206,13 @@
         <v>66</v>
       </c>
       <c r="H280" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="J280">
         <v>1985</v>
       </c>
       <c r="N280" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
@@ -11214,7 +11220,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>481</v>
+        <v>611</v>
       </c>
       <c r="C281" t="s">
         <v>35</v>
@@ -11229,13 +11235,13 @@
         <v>82</v>
       </c>
       <c r="G281" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H281" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N281" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
@@ -11243,7 +11249,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C282" t="s">
         <v>80</v>
@@ -11258,10 +11264,10 @@
         <v>82</v>
       </c>
       <c r="G282" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H282" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -11269,7 +11275,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C283" t="s">
         <v>80</v>
@@ -11287,10 +11293,10 @@
         <v>72</v>
       </c>
       <c r="H283" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I283" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -11367,7 +11373,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -11435,7 +11441,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
         <v>51</v>
@@ -11458,7 +11464,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
         <v>52</v>
@@ -11574,44 +11580,44 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>107</v>
       </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
       <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
         <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -11619,23 +11625,23 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/collected_metadata/metadata_auteur.xlsx
+++ b/data/raw/collected_metadata/metadata_auteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311AD48A-4704-4C0F-A860-278C4421C6F6}"/>
+  <xr:revisionPtr revIDLastSave="564" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14500DEE-DAED-448C-A543-FA43E7EBB867}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-940" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24820" yWindow="-550" windowWidth="16780" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B208" sqref="B2:B283"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3541,7 +3541,7 @@
         <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>

--- a/data/raw/collected_metadata/metadata_auteur.xlsx
+++ b/data/raw/collected_metadata/metadata_auteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://genes-my.sharepoint.com/personal/lmaurice_ensae_fr/Documents/CCNE/Analyse/CCNE/data/raw/collected_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="564" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14500DEE-DAED-448C-A543-FA43E7EBB867}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="14_{4E693A4A-B2EC-460E-A60F-8C84D95B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5AF3F78-B53D-4D8B-8461-20B7ED5E10F5}"/>
   <bookViews>
-    <workbookView xWindow="24820" yWindow="-550" windowWidth="16780" windowHeight="9280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="614">
   <si>
     <t>id_membre</t>
   </si>
@@ -1876,6 +1876,9 @@
   </si>
   <si>
     <t>Hervé Chneiweiss</t>
+  </si>
+  <si>
+    <t>biologie</t>
   </si>
 </sst>
 </file>
@@ -1974,10 +1977,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2268,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9017,7 +9016,7 @@
         <v>430</v>
       </c>
       <c r="I210" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="K210">
         <v>1992</v>
